--- a/sentiment_results_Q3.xlsx
+++ b/sentiment_results_Q3.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D109"/>
+  <dimension ref="A1:D187"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -450,7 +450,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.1988995373249054</v>
+        <v>0.4312512576580048</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -459,18 +459,18 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Sector trend, Financial metric - Bank</t>
+          <t>Financial metric - Bank, Sector trend</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Third quarter 2023 revenue of $1.319 billion up 6% and up 6.5% in local currency against a weaker than expected mortgage market estimated to be down 29% based on Equifax mortgage credit inquiries and the strengthening U.S. dollar, which negatively impacted revenue. Excluding Brazil revenue of $ 23 million that was not included in July guidance, third quarter revenue of $1.296 billion was up 4% and up 5% in local currency.</t>
+          <t>Third quarter 2023 revenue of $1.319 billion up 6% and up 6.5% in local currency against a weaker than expected mortgage market estimated to be down 29% based on Equifax mortgage credit inquiries and the strengthening U.S</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.3282486498355865</v>
+        <v>0.1273925602436066</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -486,491 +486,491 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Strong execution of the 2023 Cloud spending reduction plan, delivering savings of $210 million and 2024 run rate savings of $275 million.</t>
+          <t>dollar, which negatively impacted revenue</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.4078433513641357</v>
+        <v>0.1273925602436066</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>ECB interest rate</t>
+          <t>Recurring revenue</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Regulation</t>
+          <t>Financial metric - All</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Organic local currency non-mortgage revenue growth of 7% with strong new product innovation leveraging the Equifax Cloud and record New Product Vitality Index of 15%. Workforce Solutions non-mortgage revenue up a strong 11% from very strong Government growth. Total revenue up 3% due to challenging mortgage market.</t>
+          <t>Excluding Brazil revenue of $ 23 million that was not included in July guidance, third quarter revenue of $1.296 billion was up 4% and up 5% in local currency.</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.3758594691753387</v>
+        <v>0.1273925602436066</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Core growth, Recurring revenue, Aftermarket growth, Loan growth, Product Cycle / Upcoming Product Cycle, New store productivity, Organic growth, Premium growth</t>
+          <t>Recurring revenue</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Sector trend, Financial metric - Bank, Financial metric - Insurance, Financial metric - All</t>
+          <t>Financial metric - All</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>USIS revenue up 7%, with B2B non-mortgage revenue growth of 8% and strong 10% B2B Online non-mortgage revenue growth.</t>
+          <t>Strong execution of the 2023 Cloud spending reduction plan, delivering savings of $210 million and 2024 run rate savings of $275 million.</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.4992697834968567</v>
+        <v>0.2191417813301086</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Core growth, Recurring revenue, Aftermarket growth, Loan growth, Organic growth, Premium growth</t>
+          <t>ECB interest rate</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Sector trend, Financial metric - Bank, Financial metric - Insurance, Financial metric - All</t>
+          <t>Regulation</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>International revenue grew 10% on a reported basis and 12% on a local currency basis, with organic local currency revenue growth of 3%.</t>
+          <t>Organic local currency non-mortgage revenue growth of 7% with strong new product innovation leveraging the Equifax Cloud and record New Product Vitality Index of 15%</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.4633751511573792</v>
+        <v>0.07990862429141998</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Core growth, Recurring revenue, Aftermarket growth, Loan growth, Organic growth, Premium growth</t>
+          <t>Core growth, Recurring revenue, Aftermarket growth, Loan growth, Product Cycle / Upcoming Product Cycle, New store productivity, Organic growth, Premium growth</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Sector trend, Financial metric - Bank, Financial metric - Insurance, Financial metric - All</t>
+          <t>Financial metric - Bank, Sector trend, Financial metric - All, Financial metric - Insurance</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Revising guidance down to reflect the impact of weaker than expected U.S. mortgage market and foreign exchange, partially offset by acquisition of Boa Vista Serviços. Reducing full year 2023 guidance at the midpoint to revenue of $5.256 billion and Adjusted EPS of $6.67 per share.</t>
+          <t>Workforce Solutions non-mortgage revenue up a strong 11% from very strong Government growth</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.4176939129829407</v>
+        <v>0.07990862429141998</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Earnings per Share / EPS, Recurring revenue, Rate per contract, 2 year – 10 year spread, Hard market, Units per transaction</t>
+          <t>Core growth, Recurring revenue, Aftermarket growth, Loan growth, Organic growth, Premium growth</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Macro, Sector trend, Financial metric - Bank, Financial metric - All</t>
+          <t>Financial metric - Bank, Sector trend, Financial metric - All, Financial metric - Insurance</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>"Equifax executed well against our strategic priorities, our $210 million spending reduction plan, and earnings framework in the third quarter, despite lower than expected revenue principally due to a challenging mortgage market as well as foreign exchange. Revenue of $1.319 billion, including $23 million of revenue from the Boa Vista acquisition, was up 6% with Adjusted EPS of $1.76 per share up 2% versus last year. Equifax had strong organic local currency non-mortgage revenue growth of 7% from continued strong new product performance with a record New Product Vitality Index of 15%. However, throughout the</t>
+          <t>Total revenue up 3% due to challenging mortgage market.</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.392061859369278</v>
+        <v>0.07990862429141998</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Revenue, Earnings per Share / EPS, Core growth, Recurring revenue, Aftermarket growth, Rate per contract, Loan growth, Hard market, Market share, Revenue Growth Acceleration, Revenue Growth Deceleration, Product Cycle / Upcoming Product Cycle, Units per transaction, Credit portfolio performance, New store productivity, Organic growth, Market share, Premium growth</t>
+          <t>Recurring revenue</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Sector trend, Financial metric - Bank, Financial metric - Insurance, Financial metric - All</t>
+          <t>Financial metric - All</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>quarter, we saw U.S. mortgage activity decline to levels below our expectations as interest rates increased, which impacted mortgage revenue in Workforce Solutions and USIS. Workforce Solutions delivered strong 11% non-mortgage revenue growth from very strong revenue growth in Government. USIS delivered a strong quarter, with strong B2B Online non-mortgage revenue growth of 10%, and International delivered total local currency revenue growth of 12% and organic local currency revenue growth of 3%.</t>
+          <t>USIS revenue up 7%, with B2B non-mortgage revenue growth of 8% and strong 10% B2B Online non-mortgage revenue growth.</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.4769604206085205</v>
+        <v>0.06749998033046722</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Core growth, Recurring revenue, Aftermarket growth, Loan growth, Interest rates, ECB interest rate, Organic growth, Order rates, Premium growth</t>
+          <t>Core growth, Recurring revenue, Aftermarket growth, Loan growth, Organic growth, Premium growth</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Regulation, Financial metric - All, Macro, Sector trend, Financial metric - Insurance, Financial metric - Bank</t>
+          <t>Financial metric - Bank, Sector trend, Financial metric - All, Financial metric - Insurance</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>In August, we closed the acquisition of Boa Vista Serviços, the second largest credit bureau in Brazil. This acquisition will expand Equifax capabilities in the large and fast-growing Brazilian market and add to our diverse International portfolio while giving Boa Vista Serviços access to our expansive global capabilities and cloud-native data, products, decisioning and analytical technology for the rapid development of new products and services, and expansion into new industries." said Mark W. Begor, Equifax Chief Executive Officer.</t>
+          <t>International revenue grew 10% on a reported basis and 12% on a local currency basis, with organic local currency revenue growth of 3%.</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.3236635625362396</v>
+        <v>0.1731237471103668</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Hard market, Seasonal products, Credit portfolio performance</t>
+          <t>Core growth, Recurring revenue, Aftermarket growth, Loan growth, Organic growth, Premium growth</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Sector trend</t>
+          <t>Financial metric - Bank, Sector trend, Financial metric - All, Financial metric - Insurance</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>"We are reducing full year 2023 guidance at the midpoint to revenue of $5.256 billion and Adjusted EPS guidance of $6.67 per share, a reduction of $44 million and $0.31 per share, respectively. The reduction in both revenue and Adjusted EPS are principally due to the weaker U.S. mortgage market and the impact of foreign exchange partially offset by the benefit from our Boa Vista acquisition. We expect the weaker U.S. mortgage market at current high interest rates to continue in the fourth quarter, and we now expect full year Equifax mortgage credit inquiries to decline about 34%, which is down over 3 percentage points from our prior framework.</t>
+          <t>mortgage market and foreign exchange, partially offset by acquisition of Boa Vista Serviços</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.3632739186286926</v>
+        <v>0.1921690106391907</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Earnings per Share / EPS, Recurring revenue, Rate per contract, 2 year – 10 year spread, Interest rates, ECB interest rate, Hard market, Units per transaction, Order rates</t>
+          <t>Hard market</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Regulation, Financial metric - All, Macro, Sector trend, Financial metric - Bank</t>
+          <t>Sector trend</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>While the second half of 2023 has been challenging with the accelerated decline in the U.S. mortgage market, we are energized by the expected strong 13% non-mortgage revenue growth in the fourth quarter, which represents over 85% of Equifax revenue. We are confident in the future of the New Equifax as we move toward completion of our EFX Cloud and Data transformation, leveraging our new Cloud capabilities to accelerate new product roll-outs that 'Only Equifax' can provide, which will drive growth in 2024 and beyond. We are energized about the New Equifax that will deliver higher margins and free cash flow."</t>
+          <t>Reducing full year 2023 guidance at the midpoint to revenue of $5.256 billion and Adjusted EPS of $6.67 per share.</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.3913429379463196</v>
+        <v>0.1921690106391907</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Pre-tax margins, Operating margins, Incremental margins, Core growth, Recurring revenue, Aftermarket growth, Loan growth, New store productivity, Organic growth, Premium growth</t>
+          <t>Earnings per Share / EPS, Recurring revenue, Rate per contract, 2 year – 10 year spread, Units per transaction</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Sector trend, Financial metric - Bank, Financial metric - Insurance, Financial metric - All</t>
+          <t>Financial metric - Bank, Sector trend, Financial metric - All, Macro</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>The company reported revenue of $1,319.1 million in the third quarter of 2023, up 6% compared to the third quarter of 2022 on a reported basis and up 7% on a local currency basis.</t>
+          <t>"Equifax executed well against our strategic priorities, our $210 million spending reduction plan, and earnings framework in the third quarter, despite lower than expected revenue principally due to a challenging mortgage market as well as foreign exchange</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.2855763733386993</v>
+        <v>0.1505979746580124</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Recurring revenue</t>
+          <t>Recurring revenue, Hard market</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Financial metric - All</t>
+          <t>Sector trend, Financial metric - All</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Net income attributable to Equifax of $162.2 million was down 2% in the third quarter of 2023 compared to $165.7 million in the third quarter of 2022.</t>
+          <t>Revenue of $1.319 billion, including $23 million of revenue from the Boa Vista acquisition, was up 6% with Adjusted EPS of $1.76 per share up 2% versus last year</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.275818943977356</v>
+        <v>0.1505979746580124</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Net Asset Value / NAV, Net Interest Income, Net Charge Off, Net Interest Margin (NIM), Credit income</t>
+          <t>Revenue, Earnings per Share / EPS, Recurring revenue, Rate per contract, 2 year – 10 year spread, Market share, Revenue Growth Acceleration, Revenue Growth Deceleration, Units per transaction, Market share</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Sector trend, Financial metric - Bank</t>
+          <t>Financial metric - Bank, Sector trend, Financial metric - All, Macro</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Diluted EPS attributable to Equifax was $1.31 for the third quarter of 2023, down 2% compared to $1.34 in the third quarter of 2022.</t>
+          <t>Equifax had strong organic local currency non-mortgage revenue growth of 7% from continued strong new product performance with a record New Product Vitality Index of 15%</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.4073465466499329</v>
+        <v>0.1505979746580124</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Earnings per Share / EPS</t>
+          <t>Core growth, Recurring revenue, Aftermarket growth, Loan growth, Product Cycle / Upcoming Product Cycle, Credit portfolio performance, New store productivity, Organic growth, Premium growth</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Financial metric - All</t>
+          <t>Financial metric - Bank, Sector trend, Financial metric - All, Financial metric - Insurance</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Total revenue was $577.2 million in the third quarter of 2023, up 3% compared to the third quarter of 2022. Operating margin for Workforce Solutions was 41.8% in the third quarter of 2023 compared to 41.3% in the third quarter of 2022. Adjusted EBITDA margin for Workforce Solutions was 50.9% in the third quarter of 2023 compared to</t>
+          <t>mortgage activity decline to levels below our expectations as interest rates increased, which impacted mortgage revenue in Workforce Solutions and USIS</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.4229238033294678</v>
+        <v>0.103877454996109</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Operating margins, Gross margin, Contribution margin, Recurring revenue</t>
+          <t>Recurring revenue, Interest rates, ECB interest rate, Order rates</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Financial metric - All</t>
+          <t>Sector trend, Regulation, Financial metric - All, Macro</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Verification Services revenue was $459.3 million, up 1% compared to the third quarter of 2022.</t>
+          <t>Workforce Solutions delivered strong 11% non-mortgage revenue growth from very strong revenue growth in Government</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0.4033837616443634</v>
+        <v>0.103877454996109</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Recurring revenue</t>
+          <t>Core growth, Recurring revenue, Aftermarket growth, Loan growth, Organic growth, Premium growth</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Financial metric - All</t>
+          <t>Financial metric - Bank, Sector trend, Financial metric - All, Financial metric - Insurance</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Employer Services revenue was $117.9 million, up 13% compared to the third quarter of 2022.</t>
+          <t>USIS delivered a strong quarter, with strong B2B Online non-mortgage revenue growth of 10%, and International delivered total local currency revenue growth of 12% and organic local currency revenue growth of 3%.</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0.4476080238819122</v>
+        <v>0.103877454996109</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Recurring revenue</t>
+          <t>Core growth, Recurring revenue, Aftermarket growth, Loan growth, Organic growth, Premium growth</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Financial metric - All</t>
+          <t>Financial metric - Bank, Sector trend, Financial metric - All, Financial metric - Insurance</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Total revenue was $ 426.0 million in the third quarter of 2023, up 7% compared to $397.4 million in the third quarter of 2022. Operating margin for USIS was 21.1% in the third quarter of 2023 compared to 20.6% in the third quarter of 2022. Adjusted EBITDA margin for USIS was 34.2% in the third quarter of 2023 compared to 34.1% in the third quarter of 2022.</t>
+          <t>This acquisition will expand Equifax capabilities in the large and fast-growing Brazilian market and add to our diverse International portfolio while giving Boa Vista Serviços access to our expansive global capabilities and cloud-native data, products, decisioning and analytical technology for the rapid development of new products and services, and expansion into new industries." said Mark W</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.4742594957351685</v>
+        <v>-0.1083924025297165</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Operating margins, Gross margin, Contribution margin, Recurring revenue</t>
+          <t>Hard market, Seasonal products, Credit portfolio performance</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Financial metric - All</t>
+          <t>Sector trend</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Online Information Solutions revenue was $348.2 million, up 11% compared to the third quarter of 2022.</t>
+          <t>"We are reducing full year 2023 guidance at the midpoint to revenue of $5.256 billion and Adjusted EPS guidance of $6.67 per share, a reduction of $44 million and $0.31 per share, respectively</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0.3783169388771057</v>
+        <v>0.08412459492683411</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Recurring revenue</t>
+          <t>Earnings per Share / EPS, Recurring revenue, Rate per contract, 2 year – 10 year spread, Units per transaction</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Financial metric - All</t>
+          <t>Financial metric - Bank, Sector trend, Financial metric - All, Macro</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Mortgage Solutions revenue was $27.3 million, down 15% compared to the third quarter of 2022.</t>
+          <t>The reduction in both revenue and Adjusted EPS are principally due to the weaker U.S</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0.4263399839401245</v>
+        <v>0.08412459492683411</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Recurring revenue, Mortgage Fees</t>
+          <t>Earnings per Share / EPS, Recurring revenue</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Financial metric - Bank, Financial metric - All</t>
+          <t>Financial metric - All</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Financial Marketing Services revenue was $50.5 million, down 1% compared to the third quarter of 2022.</t>
+          <t>mortgage market and the impact of foreign exchange partially offset by the benefit from our Boa Vista acquisition</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0.3944554328918457</v>
+        <v>0.08412459492683411</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Recurring revenue</t>
+          <t>Hard market</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Financial metric - All</t>
+          <t>Sector trend</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Total revenue was $315.9 million in the third quarter of 2023, up 10% and 12% compared to the third quarter of 2022 on a reported and local currency basis, respectively. Operating margin for International was 12.7% in the third quarter of 2023, compared to 14.8% in the third quarter of 2022. Adjusted EBITDA margin for International was 26.2% in the third quarter of 2023, compared to 26.8% in the third quarter of 2022.</t>
+          <t>mortgage market at current high interest rates to continue in the fourth quarter, and we now expect full year Equifax mortgage credit inquiries to decline about 34%, which is down over 3 percentage points from our prior framework.</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.3332645297050476</v>
+        <v>0.08412459492683411</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Operating margins, Gross margin, Contribution margin, Recurring revenue</t>
+          <t>2 year – 10 year spread, Interest rates, ECB interest rate, Hard market, Order rates</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Financial metric - All</t>
+          <t>Sector trend, Regulation, Macro</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Asia Pacific revenue was $85.5 million, down 2% and up 2% compared to the third quarter of 2022 on a reported and local currency basis, respectively.</t>
+          <t>mortgage market, we are energized by the expected strong 13% non-mortgage revenue growth in the fourth quarter, which represents over 85% of Equifax revenue</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.3713221251964569</v>
+        <v>0.1892090439796448</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Recurring revenue</t>
+          <t>Core growth, Recurring revenue, Aftermarket growth, Loan growth, Organic growth, Premium growth</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Financial metric - All</t>
+          <t>Financial metric - Bank, Sector trend, Financial metric - All, Financial metric - Insurance</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Europe revenue was $85.2 million, up 6% and down 2% compared to the third quarter of 2022 on a reported and local currency basis, respectively.</t>
+          <t>We are confident in the future of the New Equifax as we move toward completion of our EFX Cloud and Data transformation, leveraging our new Cloud capabilities to accelerate new product roll-outs that 'Only Equifax' can provide, which will drive growth in 2024 and beyond</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.3563328981399536</v>
+        <v>0.1892090439796448</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Recurring revenue</t>
+          <t>Core growth, Aftermarket growth, Loan growth, New store productivity, Organic growth, Premium growth</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Financial metric - All</t>
+          <t>Financial metric - Bank, Sector trend, Financial metric - All, Financial metric - Insurance</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Canada revenue was $65.1 million, down 2% and flat compared to the third quarter of 2022 on a reported and local currency basis, respectively.</t>
+          <t>We are energized about the New Equifax that will deliver higher margins and free cash flow."</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.3283324837684631</v>
+        <v>0.1892090439796448</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>Recurring revenue, Yield Curve steep / flat / inverted</t>
+          <t>Pre-tax margins, Operating margins, Incremental margins, New store productivity</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Macro, Financial metric - All</t>
+          <t>Sector trend, Financial metric - All</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Latin America revenue was $80.1 million, up 48% and 62% compared to the third quarter of 2022 on a reported and local currency basis, respectively.</t>
+          <t>The company reported revenue of $1,319.1 million in the third quarter of 2023, up 6% compared to the third quarter of 2022 on a reported basis and up 7% on a local currency basis.</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.3838427066802979</v>
+        <v>0.267077624797821</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -986,31 +986,31 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Adjusted EPS and Adjusted EBITDA Margin</t>
+          <t>Net income attributable to Equifax of $162.2 million was down 2% in the third quarter of 2023 compared to $165.7 million in the third quarter of 2022.</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.3176374137401581</v>
+        <v>0.4074112772941589</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Earnings per Share / EPS, Transaction Margin, Net Interest Margin (NIM), Margin improvement, Margin Expansion</t>
+          <t>Net Asset Value / NAV, Net Interest Income, Net Charge Off, Net Interest Margin (NIM), Credit income</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Sector trend, Financial metric - Bank, Financial metric - All</t>
+          <t>Financial metric - Bank, Sector trend</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Adjusted EPS attributable to Equifax was $1.76 in the third quarter of 2023, up 2% compared to the third quarter of 2022.</t>
+          <t>Diluted EPS attributable to Equifax was $1.31 for the third quarter of 2023, down 2% compared to $1.34 in the third quarter of 2022.</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.3365896344184875</v>
+        <v>0.3469163775444031</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -1026,15 +1026,15 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Adjusted EBITDA margin was 33.1% in the third quarter of 2023 compared to 32.5% in the third quarter of 2022.</t>
+          <t>Total revenue was $577.2 million in the third quarter of 2023, up 3% compared to the third quarter of 2022</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.2780094146728516</v>
+        <v>0.001354247331619263</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Gross margin, Contribution margin</t>
+          <t>Recurring revenue</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1046,35 +1046,35 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Fourth quarter and full year guidance includes Boa Vista Serviços revenue of $38 million and $61 million, respectively.</t>
+          <t>Operating margin for Workforce Solutions was 41.8% in the third quarter of 2023 compared to 41.3% in the third quarter of 2022</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.323251873254776</v>
+        <v>0.001354247331619263</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Recurring revenue, 2 year – 10 year spread</t>
+          <t>Operating margins, Gross margin, Contribution margin</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Macro, Financial metric - All</t>
+          <t>Financial metric - All</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Earnings Conference Call and Audio Webcast</t>
+          <t>Adjusted EBITDA margin for Workforce Solutions was 50.9% in the third quarter of 2023 compared to</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.3292089700698853</v>
+        <v>0.001354247331619263</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Earnings, Earnings per Share / EPS</t>
+          <t>Gross margin, Contribution margin</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1086,115 +1086,115 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>This earnings release presents adjusted EPS attributable to Equifax which is diluted EPS attributable to Equifax adjusted (to the extent noted above for different periods) for acquisition-related amortization expense, accrual for legal and regulatory matters related to the 2017 cybersecurity incident, fair value adjustment and gain on sale of equity investments, foreign currency impact of certain intercompany loans, acquisition-related costs other than acquisition amortization, income tax effect of stock awards recognized upon vesting or settlement, Argentina highly inflationary foreign currency adjustment, realignment of resources and other costs, gain on settlement of Canada pension plan, and adjustments to deferred tax balances. All adjustments are net of tax, with a reconciling item with the aggregated tax impact of the adjustments. This earnings release also presents (i) adjusted EBITDA and adjusted EBITDA margin which is defined as consolidated net income attributable to Equifax plus net interest expense, income taxes, depreciation and amortization, and also excludes certain one-time items, (ii) local currency revenue change which is calculated by conforming 2023 results using 2022 exchange rates and (iii) organic local currency revenue growth which is defined as local currency revenue growth, adjusted to reflect an increase in prior year Equifax revenue from the revenue of acquired companies in the prior year period. These are important financial measures for Equifax but are not</t>
+          <t>Verification Services revenue was $459.3 million, up 1% compared to the third quarter of 2022.</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.3471739888191223</v>
+        <v>0.1356548070907593</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Earnings per Share / EPS, Gross margin, Contribution margin, Core growth, Recurring revenue, Aftermarket growth, Collateral value, Loan growth, 2 year – 10 year spread, Interest rates, ECB interest rate, Wage increase, Supplier price increase, Distribution costs, Buying costs, Credit income, Organic growth, Risk adjustment, Order rates, Premium growth</t>
+          <t>Recurring revenue</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Regulation, Financial metric - All, Macro, Sector trend, Financial metric - Insurance, Financial metric - Bank</t>
+          <t>Financial metric - All</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>These non-GAAP financial measures should be reviewed in conjunction with the relevant GAAP financial measures and are not presented as an alternative measure of net income or EPS as determined in accordance with GAAP.</t>
+          <t>Employer Services revenue was $117.9 million, up 13% compared to the third quarter of 2022.</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.394214391708374</v>
+        <v>0.1601030975580215</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>Earnings per Share / EPS, Credit income</t>
+          <t>Recurring revenue</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Sector trend, Financial metric - All</t>
+          <t>Financial metric - All</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>This release contains forward-looking statements and forward-looking information. These statements can be identified by expressions of belief, expectation or intention, as well as statements that are not historical fact. These statements are based on certain factors and assumptions including with respect to foreign exchange rates, expected growth, results of operations, performance, business prospects and opportunities, the U.S. mortgage market, economic conditions and effective tax rates. While the Company believes these factors and assumptions to be reasonable based on information currently available, they may prove to be incorrect.</t>
+          <t>Total revenue was $ 426.0 million in the third quarter of 2023, up 7% compared to $397.4 million in the third quarter of 2022</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0.2056752145290375</v>
+        <v>0.03599146008491516</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>Terms and conditions</t>
+          <t>Recurring revenue</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Financial metric - Insurance</t>
+          <t>Financial metric - All</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Several factors could cause actual results to differ materially from those expressed or implied in the forward- looking statements, including, but not limited to, actions taken by us, including restructuring or strategic initiatives (including our technology, data and security cloud transformation, capital investments and asset acquisitions or dispositions), as well as developments beyond our control, including, but not limited to, changes in the U.S. mortgage market environment, as well as changes more generally in U.S. and worldwide economic conditions that materially impact consumer spending, such as rising interest rates and inflation, consumer debt and employment and the demand for Equifax's products and services. Further deteriorations in economic conditions or interest rate increases could lead to a further or prolonged decline in demand for our products and services and negatively impact our business. It may also continue to impact financial markets and corporate credit markets which could adversely impact our access to financing or the terms of any financing. Other risk factors include the impact of our technology and security transformation and improvements in our information technology and data security infrastructure; changes in tax regulations; adverse or uncertain economic conditions and changes in credit and financial markets, such as rising interest rates and inflation; potential adverse developments in new and pending legal proceedings or government investigations; risks associated with our ability to comply with business practice commitments and similar obligations under settlement agreements and consent orders entered into in connection with the 2017 cybersecurity incident; economic, political and other risks associated with international sales and operations; risks relating to unauthorized access to data or breaches of confidential information due to criminal conduct, attacks by hackers, employee or insider malfeasance and/or human error; changes in, and the effects of, laws and regulations and government policies governing or affecting our business, including, without limitation, our examination and supervision by the Consumer Financial Protection Bureau, a federal agency that holds primary responsibility for the regulation of consumer protection with respect to financial products and services in the U.S., oversight by the U.K. Financial Conduct Authority and Information Commissioner's Office of our debt collections services and core credit reporting</t>
+          <t>Operating margin for USIS was 21.1% in the third quarter of 2023 compared to 20.6% in the third quarter of 2022</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.5055301785469055</v>
+        <v>0.03599146008491516</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>Green financing, Climate risk, Interest rates, ECB interest rate, Peak regulation, Hard market, Seasonal products, Price increases, Same store sales comps, Same Store sales, Order rates, Terms and conditions</t>
+          <t>Operating margins, Gross margin, Contribution margin</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Regulation, Macro, Sector trend, Financial metric - Insurance, Financial metric - Bank</t>
+          <t>Financial metric - All</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>businesses in the U.K., oversight by the Office of Australian Information Commission, the Australian Competition and Consumer Commission and other regulatory entities of our credit reporting business in Australia and the impact of current privacy laws and regulations, including the European General Data Protection Regulation and the California Consumer Privacy Act, or any future privacy laws and regulations; federal or state responses to identity theft concerns; our ability to realize the anticipated strategic and financial benefits sought from acquisitions; our ability to successfully develop and market new products and services, respond to pricing and other competitive pressures, complete and integrate acquisitions and other investments and achieve targeted cost efficiencies; timing and amount of capital expenditures; changes in capital markets and corresponding effects on the Company's investments and benefit plan obligations; foreign currency exchange rates and earnings repatriation limitations; and the decisions of taxing authorities which could affect our effective tax rates. A summary of additional risks and uncertainties can be found in our Annual Report on Form 10-K for the year ended December 31, 2022 including without limitation under the captions "Item 1. Business -- Governmental Regulation" and "-- Forward -Looking Statements" and "Item 1A. Risk Factors" and in our other filings with the U.S. Securities and Exchange Commission. Forward-looking statements are given only as at the date of this release and the Company disclaims any obligation to update or revise the forward-looking statements, whether as a result of new information, future events or otherwise, except as required by law.</t>
+          <t>Adjusted EBITDA margin for USIS was 34.2% in the third quarter of 2023 compared to 34.1% in the third quarter of 2022.</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0.2856780886650085</v>
+        <v>0.03599146008491516</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>Exchange Volume / Trading Volume, Credit cost, 2 year – 10 year spread, Regulation, Interest rates, Regulation, Regulation, Hard market, Seasonal products, Fuel cost, Risk adjustment, Order rates, Price cost spread</t>
+          <t>Gross margin, Contribution margin</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Macro, Sector trend, Financial metric - Bank, Regulation</t>
+          <t>Financial metric - All</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Operating activities:</t>
+          <t>Online Information Solutions revenue was $348.2 million, up 11% compared to the third quarter of 2022.</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0.2790245413780212</v>
+        <v>0.1673913151025772</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Operating margins</t>
+          <t>Recurring revenue</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1206,215 +1206,215 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Consolidated net income</t>
+          <t>Mortgage Solutions revenue was $27.3 million, down 15% compared to the third quarter of 2022.</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0.2114363014698029</v>
+        <v>0.1250385046005249</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>Credit income</t>
+          <t>Recurring revenue, Mortgage Fees</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Sector trend</t>
+          <t>Financial metric - Bank, Financial metric - All</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Adjustments to reconcile consolidated net income to net cash provided by operating activities:</t>
+          <t>Financial Marketing Services revenue was $50.5 million, down 1% compared to the third quarter of 2022.</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0.3138574361801147</v>
+        <v>0.1521361470222473</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Credit income</t>
+          <t>Recurring revenue</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>Sector trend</t>
+          <t>Financial metric - All</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Stock-based compensation expense</t>
+          <t>Total revenue was $315.9 million in the third quarter of 2023, up 10% and 12% compared to the third quarter of 2022 on a reported and local currency basis, respectively</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0.3128112554550171</v>
+        <v>0.3255041539669037</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>Incentive compensation, Logistics expense</t>
+          <t>Recurring revenue</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>Sector trend, Financial metric - All</t>
+          <t>Financial metric - All</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Deferred income taxes</t>
+          <t>Operating margin for International was 12.7% in the third quarter of 2023, compared to 14.8% in the third quarter of 2022</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0.420202225446701</v>
+        <v>0.3255041539669037</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>Bank taxes, Credit income</t>
+          <t>Operating margins, Gross margin, Contribution margin</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>Sector trend, Financial metric - Bank</t>
+          <t>Financial metric - All</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Gain on fair market value adjustment and gain on sale of equity investments</t>
+          <t>Adjusted EBITDA margin for International was 26.2% in the third quarter of 2023, compared to 26.8% in the third quarter of 2022.</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0.3854705393314362</v>
+        <v>0.3255041539669037</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>Collateral value, Hard market, Risk adjustment</t>
+          <t>Gross margin, Contribution margin</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>Sector trend, Financial metric - Bank</t>
+          <t>Financial metric - All</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Changes in assets and liabilities, excluding effects of acquisitions:</t>
+          <t>Asia Pacific revenue was $85.5 million, down 2% and up 2% compared to the third quarter of 2022 on a reported and local currency basis, respectively.</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0.5242697596549988</v>
+        <v>0.205445796251297</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>Risk-weighted assets / Risk-weightings</t>
+          <t>Recurring revenue</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Financial metric - Bank</t>
+          <t>Financial metric - All</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Cash provided by operating activities</t>
+          <t>Europe revenue was $85.2 million, up 6% and down 2% compared to the third quarter of 2022 on a reported and local currency basis, respectively.</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0.06206908822059631</v>
+        <v>0.2099402546882629</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Promotional activities</t>
+          <t>Recurring revenue</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>Sector trend</t>
+          <t>Financial metric - All</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Capital expenditures</t>
+          <t>Canada revenue was $65.1 million, down 2% and flat compared to the third quarter of 2022 on a reported and local currency basis, respectively.</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>0.4036617279052734</v>
+        <v>0.2771560549736023</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>Capital Return, Capital Requirements / Common Equity Tier 1 Capital / Leverage Ratio / Tier 1 Leverage Ratio, Capital buffer</t>
+          <t>Recurring revenue, Yield Curve steep / flat / inverted</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Macro, Financial metric - Insurance, Financial metric - All</t>
+          <t>Financial metric - All, Macro</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Cash used in investing activities</t>
+          <t>Latin America revenue was $80.1 million, up 48% and 62% compared to the third quarter of 2022 on a reported and local currency basis, respectively.</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>0.1865324079990387</v>
+        <v>0.1857617795467377</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>Promotional activities</t>
+          <t>Recurring revenue</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Sector trend</t>
+          <t>Financial metric - All</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Net short-term borrowings</t>
+          <t>Adjusted EPS and Adjusted EBITDA Margin</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>0.4222579300403595</v>
+        <v>0.185513973236084</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Net Asset Value / NAV, Net Interest Income, Net Charge Off, Net Interest Margin (NIM)</t>
+          <t>Earnings per Share / EPS, Transaction Margin, Net Interest Margin (NIM), Margin improvement, Margin Expansion</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>Financial metric - Bank</t>
+          <t>Financial metric - Bank, Sector trend, Financial metric - All</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Dividends paid to Equifax shareholders</t>
+          <t>Adjusted EPS attributable to Equifax was $1.76 in the third quarter of 2023, up 2% compared to the third quarter of 2022.</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>0.3550697863101959</v>
+        <v>0.3015173971652985</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Dividends, Preferred Dividends</t>
+          <t>Earnings per Share / EPS</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -1426,15 +1426,15 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Dividends paid to noncontrolling interests</t>
+          <t>Adjusted EBITDA margin was 33.1% in the third quarter of 2023 compared to 32.5% in the third quarter of 2022.</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>0.2430492490530014</v>
+        <v>0.254588782787323</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>Dividends, Preferred Dividends</t>
+          <t>Gross margin, Contribution margin</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
@@ -1446,335 +1446,335 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Payment of taxes related to settlement of equity awards</t>
+          <t>Fourth quarter and full year guidance includes Boa Vista Serviços revenue of $38 million and $61 million, respectively.</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>0.3979541063308716</v>
+        <v>0.07575304806232452</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>Bank taxes</t>
+          <t>Recurring revenue, 2 year – 10 year spread</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>Financial metric - Bank</t>
+          <t>Financial metric - All, Macro</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Debt issuance costs</t>
+          <t>Earnings Conference Call and Audio Webcast</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>0.3429710268974304</v>
+        <v>0.1835822314023972</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>Distribution costs, Buying costs</t>
+          <t>Earnings, Earnings per Share / EPS</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>Sector trend</t>
+          <t>Financial metric - All</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Cash provided by financing activities</t>
+          <t>This earnings release presents adjusted EPS attributable to Equifax which is diluted EPS attributable to Equifax adjusted (to the extent noted above for different periods) for acquisition-related amortization expense, accrual for legal and regulatory matters related to the 2017 cybersecurity incident, fair value adjustment and gain on sale of equity investments, foreign currency impact of certain intercompany loans, acquisition-related costs other than acquisition amortization, income tax effect of stock awards recognized upon vesting or settlement, Argentina highly inflationary foreign currency adjustment, realignment of resources and other costs, gain on settlement of Canada pension plan, and adjustments to deferred tax balances</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>0.05241991579532623</v>
+        <v>-0.1901171952486038</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>Green financing, Promotional activities</t>
+          <t>Earnings per Share / EPS, Collateral value, Distribution costs, Buying costs, Credit income, Risk adjustment</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>Sector trend, Financial metric - Bank</t>
+          <t>Financial metric - Bank, Sector trend, Financial metric - All</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Effect of foreign currency exchange rates on cash and cash equivalents Increase in cash and cash equivalents</t>
+          <t>This earnings release also presents (i) adjusted EBITDA and adjusted EBITDA margin which is defined as consolidated net income attributable to Equifax plus net interest expense, income taxes, depreciation and amortization, and also excludes certain one-time items, (ii) local currency revenue change which is calculated by conforming 2023 results using 2022 exchange rates and (iii) organic local currency revenue growth which is defined as local currency revenue growth, adjusted to reflect an increase in prior year Equifax revenue from the revenue of acquired companies in the prior year period</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>0.4878784120082855</v>
+        <v>-0.1901171952486038</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>Interest rates, Order rates</t>
+          <t>Gross margin, Contribution margin, Core growth, Recurring revenue, Aftermarket growth, Loan growth, 2 year – 10 year spread, Interest rates, ECB interest rate, Wage increase, Supplier price increase, Credit income, Organic growth, Order rates, Premium growth</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>Macro, Sector trend</t>
+          <t>Regulation, Financial metric - Bank, Sector trend, Macro, Financial metric - Insurance, Financial metric - All</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Common Questions &amp; Answers (Unaudited)</t>
+          <t>These non-GAAP financial measures should be reviewed in conjunction with the relevant GAAP financial measures and are not presented as an alternative measure of net income or EPS as determined in accordance with GAAP.</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>0.3920391201972961</v>
+        <v>0.308418333530426</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>Capital Requirements / Common Equity Tier 1 Capital / Leverage Ratio / Tier 1 Leverage Ratio</t>
+          <t>Earnings per Share / EPS, Credit income</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>Macro</t>
+          <t>Sector trend, Financial metric - All</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Can you provide a further analysis of operating revenue by operating segment?</t>
+          <t>mortgage market, economic conditions and effective tax rates</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>0.3283454775810242</v>
+        <v>0.1509557366371155</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Recurring revenue</t>
+          <t>Interest rates, Order rates, Terms and conditions</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>Financial metric - All</t>
+          <t>Sector trend, Macro, Financial metric - Insurance</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Operating revenue consists of the following components:</t>
+          <t>mortgage market environment, as well as changes more generally in U.S</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>0.1334300637245178</v>
+        <v>0.01132309436798096</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>Operating margins, Recurring revenue</t>
+          <t>Hard market</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>Financial metric - All</t>
+          <t>Sector trend</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Local currency revenue change is calculated by conforming 2023 results using 2022 exchange rates.</t>
+          <t>and worldwide economic conditions that materially impact consumer spending, such as rising interest rates and inflation, consumer debt and employment and the demand for Equifax's products and services</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>0.3186264038085938</v>
+        <v>0.01132309436798096</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>Recurring revenue</t>
+          <t>Interest rates, ECB interest rate, Seasonal products, Order rates, Terms and conditions</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>Financial metric - All</t>
+          <t>Sector trend, Regulation, Macro, Financial metric - Insurance</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Organic local currency revenue growth is defined as local currency revenue growth, adjusted to reflect an increase in prior year Equifax revenue from the revenue of acquired companies in the prior year period. This adjustment is made for 12 months following the acquisition.</t>
+          <t>Further deteriorations in economic conditions or interest rate increases could lead to a further or prolonged decline in demand for our products and services and negatively impact our business</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>0.2575409114360809</v>
+        <v>0.01132309436798096</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>Core growth, Recurring revenue, Aftermarket growth, Loan growth, 2 year – 10 year spread, Wage increase, Supplier price increase, Organic growth, Risk adjustment, Premium growth</t>
+          <t>ECB interest rate, Seasonal products, Price increases, Terms and conditions</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>Financial metric - All, Macro, Sector trend, Financial metric - Insurance, Financial metric - Bank</t>
+          <t>Sector trend, Regulation, Financial metric - Insurance</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>What is the estimate of the change in overall U.S. Mortgage Market credit inquiry volume that is included in the 2023 fourth quarter and full year guidance provided?</t>
+          <t>It may also continue to impact financial markets and corporate credit markets which could adversely impact our access to financing or the terms of any financing</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>0.4138219654560089</v>
+        <v>0.01132309436798096</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>Mortgage Fees, Market Fees, 2 year – 10 year spread, Market share, Market share</t>
+          <t>Green financing</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>Macro, Sector trend, Financial metric - Bank</t>
+          <t>Financial metric - Bank</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>The change year over year in total U.S. mortgage credit inquiries received by Equifax in the third quarter of 2023 was a decline of 29%. The guidance provided on page 3 assumes a change year over year in total U.S. Mortgage Market Credit inquiries received by Equifax in the fourth quarter of 2023 to be a decline of about 22%. For full year 2023, our guidance assumes a decline of about 34%.</t>
+          <t>Other risk factors include the impact of our technology and security transformation and improvements in our information technology and data security infrastructure; changes in tax regulations; adverse or uncertain economic conditions and changes in credit and financial markets, such as rising interest rates and inflation; potential adverse developments in new and pending legal proceedings or government investigations; risks associated with our ability to comply with business practice commitments and similar obligations under settlement agreements and consent orders entered into in connection with the 2017 cybersecurity incident; economic, political and other risks associated with international sales and operations; risks relating to unauthorized access to data or breaches of confidential information due to criminal conduct, attacks by hackers, employee or insider malfeasance and/or human error; changes in, and the effects of, laws and regulations and government policies governing or affecting our business, including, without limitation, our examination and supervision by the Consumer Financial Protection Bureau, a federal agency that holds primary responsibility for the regulation of consumer protection with respect to financial products and services in the U.S., oversight by the U.K</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>0.6549210548400879</v>
+        <v>0.01132309436798096</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>Mortgage Fees, Market Fees, Private Credit, Credit cost, 2 year – 10 year spread, Market share, Credit card fees, Credit income, Credit portfolio performance, Market share</t>
+          <t>Climate risk, Interest rates, ECB interest rate, Peak regulation, Seasonal products, Same store sales comps, Same Store sales, Order rates, Terms and conditions</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>Macro, Sector trend, Financial metric - Bank</t>
+          <t>Sector trend, Regulation, Macro, Financial metric - Insurance</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>In the third quarter of 2023, what was the revenue impact of foreign currency versus the July revenue guidance?</t>
+          <t>businesses in the U.K., oversight by the Office of Australian Information Commission, the Australian Competition and Consumer Commission and other regulatory entities of our credit reporting business in Australia and the impact of current privacy laws and regulations, including the European General Data Protection Regulation and the California Consumer Privacy Act, or any future privacy laws and regulations; federal or state responses to identity theft concerns; our ability to realize the anticipated strategic and financial benefits sought from acquisitions; our ability to successfully develop and market new products and services, respond to pricing and other competitive pressures, complete and integrate acquisitions and other investments and achieve targeted cost efficiencies; timing and amount of capital expenditures; changes in capital markets and corresponding effects on the Company's investments and benefit plan obligations; foreign currency exchange rates and earnings repatriation limitations; and the decisions of taxing authorities which could affect our effective tax rates</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>0.4197978973388672</v>
+        <v>-0.06443122029304504</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>Recurring revenue</t>
+          <t>Credit cost, Regulation, Interest rates, Regulation, Regulation, Hard market, Seasonal products, Fuel cost, Order rates, Price cost spread</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>Financial metric - All</t>
+          <t>Financial metric - Bank, Sector trend, Regulation, Macro</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>The strengthening of the U.S. dollar resulted in a lower third quarter of 2023 Equifax revenue from foreign currency exchange of $6 million versus the quarterly revenue guidance we provided in July 2023.</t>
+          <t>A summary of additional risks and uncertainties can be found in our Annual Report on Form 10-K for the year ended December 31, 2022 including without limitation under the captions "Item 1</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>0.3461350798606873</v>
+        <v>-0.06443122029304504</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>Recurring revenue</t>
+          <t>2 year – 10 year spread</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>Financial metric - All</t>
+          <t>Macro</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>(Dollars in millions, except per share amounts)</t>
+          <t>Risk Factors" and in our other filings with the U.S</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>0.2195789217948914</v>
+        <v>-0.06443122029304504</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>Earnings per Share / EPS, Rate per contract, Market share, Units per transaction, Market share</t>
+          <t>Risk adjustment</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>Sector trend, Financial metric - Bank, Financial metric - All</t>
+          <t>Sector trend</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Reconciliation of net income attributable to Equifax to diluted EPS attributable to Equifax, defined as net income adjusted for acquisition-related amortization expense, accrual for legal and regulatory matters related to the 2017 cybersecurity incident, fair value adjustment and gain on sale of equity investments, foreign currency impact of certain intercompany loans, acquisition-related costs other than acquisition</t>
+          <t>Securities and Exchange Commission</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>0.4077931642532349</v>
+        <v>-0.06443122029304504</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>Earnings per Share / EPS, Collateral value, Distribution costs, Buying costs, Credit income, Risk adjustment</t>
+          <t>Exchange Volume / Trading Volume</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>Sector trend, Financial metric - Bank, Financial metric - All</t>
+          <t>Financial metric - Bank</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>amortization, income tax effect of stock awards recognized upon vesting or settlement, Argentina highly inflationary foreign currency adjustment, realignment of resources and other costs, gain on settlement of Canada pension plan, adjustments to deferred tax balances and aggregated tax impact of these adjustments:</t>
+          <t>Operating activities:</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>0.411169707775116</v>
+        <v>0.319315493106842</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>Credit income</t>
+          <t>Operating margins</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>Sector trend</t>
+          <t>Financial metric - All</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>During the third quarter of 2023, we recorded acquisition-related amortization expense of certain acquired intangibles of $64.4 million ($51.7 million, net of tax). We calculate this financial measure by excluding the impact of acquisition-related amortization expense and including a benefit to reflect the significant cash income tax savings resulting from the income tax deductibility of amortization for certain acquired intangibles. The $12.7 million of tax is comprised of $16.7 million of tax expense net of $4.0 million of a cash income tax benefit. During the third quarter of 2022, we recorded acquisition-related amortization expense of certain acquired intangibles of $59.1 million ($48.1 million, net of tax). The $11.0 million of tax is comprised of $15.1 million of tax expense net of $4.1 million of a cash income tax benefit. See the Notes to this reconciliation for additional detail.</t>
+          <t>Consolidated net income</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>0.6101961135864258</v>
+        <v>0.2654730379581451</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>Logistics expense, Credit income</t>
+          <t>Credit income</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
@@ -1786,615 +1786,615 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>During the third quarter of 2023, we recorded a loss on the fair market value adjustment of equity investments of $0.2 million</t>
+          <t>Adjustments to reconcile consolidated net income to net cash provided by operating activities:</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>0.3053772747516632</v>
+        <v>0.2266458719968796</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>Collateral value, Hard market, Risk adjustment</t>
+          <t>Credit income</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>Sector trend, Financial metric - Bank</t>
+          <t>Sector trend</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>($0.1 million, net of tax). During the third quarter of 2022, we recorded an unrealized gain on the fair market value adjustment and gain on sale of equity investments of $17.5 million ($11.4 million, net of tax). The fair value adjustments were recorded to the Other income, net line item within the Consolidated Statements of Income. See the Notes to this reconciliation for additional details.</t>
+          <t>Stock-based compensation expense</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>0.3446592092514038</v>
+        <v>0.2372511327266693</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>Collateral value, Hard market, Risk adjustment</t>
+          <t>Incentive compensation, Logistics expense</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>Sector trend, Financial metric - Bank</t>
+          <t>Sector trend, Financial metric - All</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>During the third quarter of 2023, we recorded a foreign currency gain on certain intercompany loans of $0.4 million. During the third quarter of 2022, we recorded a foreign currency gain on certain intercompany loans of $0.5 million. The impact was recorded to the Other income, net line item within the Consolidated Statements of Income. See the Notes to this reconciliation for additional detail.</t>
+          <t>Deferred income taxes</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>0.4115980863571167</v>
+        <v>0.2101435512304306</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>Non-performing loans, Stage 2 loans, Stage 3 loans</t>
+          <t>Bank taxes, Credit income</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>Financial metric - Bank</t>
+          <t>Financial metric - Bank, Sector trend</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>During the third quarter of 2023, we recorded $24.4 million ($19.9 million, net of tax) for acquisition-related costs other than acquisition amortization. During the third quarter of 2022, we recorded $19.1 million ($14.4 million, net of tax) for acquisition-related costs other than acquisition amortization. These costs primarily related to integration costs resulting from recent acquisition activity and were recorded in operating income. See the Notes to this reconciliation for additional detail.</t>
+          <t>Gain on fair market value adjustment and gain on sale of equity investments</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>0.487762451171875</v>
+        <v>0.2544229328632355</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>Distribution costs, Buying costs</t>
+          <t>Collateral value, Hard market, Risk adjustment</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>Sector trend</t>
+          <t>Financial metric - Bank, Sector trend</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>During the third quarter of 2023, we recorded a tax benefit of $0.3 million related to the tax effects of deductions for stock compensation in excess of amounts recorded for compensation costs. During the third quarter of 2022, we recorded a tax benefit of $0.2 million related to the tax effects of deductions for stock compensation expense in excess of amounts recorded for compensation costs. See the Notes to this reconciliation for additional detail.</t>
+          <t>Changes in assets and liabilities, excluding effects of acquisitions:</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>0.4653319120407104</v>
+        <v>0.2430963814258575</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>Incentive compensation, Logistics expense</t>
+          <t>Risk-weighted assets / Risk-weightings</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>Sector trend, Financial metric - All</t>
+          <t>Financial metric - Bank</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Argentina experienced multiple periods of increasing inflation rates, devaluation of the peso, and increasing borrowing rates. As such, Argentina was deemed a highly inflationary economy by accounting policymakers in 2018. During the third quarter of 2023 and 2022, we recorded a foreign currency loss of $0.4 million and a foreign currency gain of $0.2 million, respectively, related to the impact of remeasuring the peso denominated monetary assets and liabilities as a result of Argentina being a highly inflationary economy. See the Notes to this reconciliation for additional detail.</t>
+          <t>Cash provided by operating activities</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>0.4301018714904785</v>
+        <v>0.5416182279586792</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>Risk-weighted assets / Risk-weightings, Social inflation, Materials inflation, Claims inflation</t>
+          <t>Promotional activities</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>Macro, Sector trend, Financial metric - Bank</t>
+          <t>Sector trend</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>During the third quarter of 2023, we recorded an adjustment of $2.3 million ($1.7 million, net of tax) to previous restructuring charges as we refined our estimate for the realignment of resources and other costs recorded in Q2 2023. See the Notes to this reconciliation for additional detail.</t>
+          <t>Capital expenditures</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>0.2714290022850037</v>
+        <v>0.2297061383724213</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>Distribution costs, Buying costs, Risk adjustment</t>
+          <t>Capital Return, Capital Requirements / Common Equity Tier 1 Capital / Leverage Ratio / Tier 1 Leverage Ratio, Capital buffer</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>Sector trend</t>
+          <t>Financial metric - All, Macro, Financial metric - Insurance</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>During the third quarter of 2023, we recorded a tax benefit of $28.2 million related to the write off of a deferred tax liability related to our original investment in Boa Vista Serviços as a result of our purchase of the remaining interest in Boa Vista Serviços in the same quarter. See Notes to this reconciliation for additional detail.</t>
+          <t>Cash used in investing activities</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>0.1824598610401154</v>
+        <v>0.4387461841106415</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t>ECB interest rate</t>
+          <t>Promotional activities</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>Regulation</t>
+          <t>Sector trend</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>During the third quarter of 2023, we recorded the tax impact of adjustments of $16.7 million comprised of (i) acquisition-related amortization expense of certain acquired intangibles of $12.7 million ($16.7 million of tax expense net of $4.0 million of cash income tax benefit), (ii) a tax adjustment of $0.1 million related to the fair market value adjustment of equity investments, (iii) a tax adjustment of $4.5 million related to acquisition-related costs other than acquisition amortization and (iv) a tax adjustment of $0.6 million related to the realignment of resources.</t>
+          <t>Net short-term borrowings</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>0.5776468515396118</v>
+        <v>0.2850885987281799</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t>Collateral value, Hard market, Logistics expense, Distribution costs, Buying costs, Credit income, Risk adjustment</t>
+          <t>Net Asset Value / NAV, Net Interest Income, Net Charge Off, Net Interest Margin (NIM)</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>Sector trend, Financial metric - Bank</t>
+          <t>Financial metric - Bank</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>During the third quarter of 2022, we recorded the tax impact of adjustments of $10.6 million comprised of (i) acquisition-related amortization expense of certain acquired intangibles of $11.0 million ($15.1 million of tax expense net of $4.1 million of cash income tax benefit), (ii) a tax adjustment of $0.1 million related to an accrual for legal and regulatory matters related to the 2017 cybersecurity incident, (iii) a tax adjustment of $6.1 million related to the gain on fair market value adjustment and gain on sale of equity investment, (iv) a tax adjustment of $4.7 million related to acquisition-related costs other than acquisition amortization and</t>
+          <t>Dividends paid to Equifax shareholders</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>0.6022223234176636</v>
+        <v>0.2675934433937073</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t>Collateral value, Hard market, Logistics expense, Distribution costs, Buying costs, Credit income, Risk adjustment</t>
+          <t>Dividends, Preferred Dividends</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>Sector trend, Financial metric - Bank</t>
+          <t>Financial metric - All</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>(v) a tax adjustment of $0.9 million related to the gain on settlement of Canada pension plan.</t>
+          <t>Dividends paid to noncontrolling interests</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>0.2282288074493408</v>
+        <v>0.4571038484573364</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t>Risk adjustment</t>
+          <t>Dividends, Preferred Dividends</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>Sector trend</t>
+          <t>Financial metric - All</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Reconciliation of net income attributable to Equifax to adjusted EBITDA, defined as net income excluding income taxes, interest expense, net, depreciation and amortization expense, accrual for legal and regulatory matters related to the 2017 cybersecurity incident, fair value adjustment and gain on sale of equity investments, foreign currency impact of certain intercompany loans, acquisition-related costs other than acquisition amortization, Argentina highly inflationary foreign currency adjustment, realignment of resources and other costs, gain on settlement of Canada pension and presentation of adjusted EBITDA margin:</t>
+          <t>Payment of taxes related to settlement of equity awards</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>0.3216515183448792</v>
+        <v>0.2702207863330841</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t>Collateral value, ECB interest rate, Distribution costs, Buying costs, Credit income, Risk adjustment</t>
+          <t>Bank taxes</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>Sector trend, Financial metric - Bank, Regulation</t>
+          <t>Financial metric - Bank</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>*Excludes interest income of $6.2 million in 2023 and $0.5 million 2022.</t>
+          <t>Debt issuance costs</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>0.372652530670166</v>
+        <v>0.2701812386512756</v>
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t>ECB interest rate, Credit income</t>
+          <t>Distribution costs, Buying costs</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>Sector trend, Regulation</t>
+          <t>Sector trend</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>During the third quarter of 2023, we recorded a loss on the fair market value adjustment of equity investments of $0.2 million</t>
+          <t>Cash provided by financing activities</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>0.3053772747516632</v>
+        <v>0.676912784576416</v>
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t>Collateral value, Hard market, Risk adjustment</t>
+          <t>Green financing, Promotional activities</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>Sector trend, Financial metric - Bank</t>
+          <t>Financial metric - Bank, Sector trend</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>($0.1 million, net of tax). During the third quarter of 2022, we recorded an unrealized gain on the fair market value adjustment and gain on sale of equity investments of $17.5 million ($11.4 million, net of tax). The fair value adjustments were recorded to the Other income, net line item within the Consolidated Statements of Income. See the Notes to this reconciliation for additional details.</t>
+          <t>Effect of foreign currency exchange rates on cash and cash equivalents Increase in cash and cash equivalents</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>0.3446592092514038</v>
+        <v>0.2377582788467407</v>
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t>Collateral value, Hard market, Risk adjustment</t>
+          <t>Interest rates, Order rates</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>Sector trend, Financial metric - Bank</t>
+          <t>Sector trend, Macro</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>During the third quarter of 2023, we recorded a foreign currency gain on certain intercompany loans of $0.4 million. During the third quarter of 2022, we recorded a foreign currency gain on certain intercompany loans of $0.5 million. See the Notes to this reconciliation for additional detail.</t>
+          <t>Common Questions &amp; Answers (Unaudited)</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>0.4854333400726318</v>
+        <v>0.2101540565490723</v>
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t>Non-performing loans, Stage 2 loans, Stage 3 loans</t>
+          <t>Capital Requirements / Common Equity Tier 1 Capital / Leverage Ratio / Tier 1 Leverage Ratio</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>Financial metric - Bank</t>
+          <t>Macro</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>During the third quarter of 2023, we recorded $24.4 million ($19.9 million, net of tax) for acquisition-related costs other than acquisition amortization. During the third quarter of 2022, we recorded $19.1 million ($14.4 million, net of tax) for acquisition-related costs other than acquisition amortization. These costs primarily related to integration costs resulting from recent acquisition activity and were recorded in operating income. See the Notes to this reconciliation for additional detail.</t>
+          <t>Can you provide a further analysis of operating revenue by operating segment?</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>0.487762451171875</v>
+        <v>0.2798821926116943</v>
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t>Distribution costs, Buying costs</t>
+          <t>Recurring revenue</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>Sector trend</t>
+          <t>Financial metric - All</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Argentina experienced multiple periods of increasing inflation rates, devaluation of the peso, and increasing borrowing rates. As such, Argentina was deemed a highly inflationary economy by accounting policymakers in 2018. During the third quarter of 2023 and 2022, we recorded a foreign currency loss of $0.4 million and a foreign currency gain of $0.2 million, respectively, related to the impact of remeasuring the peso denominated monetary assets and liabilities as a result of Argentina being a highly inflationary economy. See the Notes to this reconciliation for additional detail.</t>
+          <t>Operating revenue consists of the following components:</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>0.4301018714904785</v>
+        <v>0.3934448957443237</v>
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t>Risk-weighted assets / Risk-weightings, Social inflation, Materials inflation, Claims inflation</t>
+          <t>Operating margins, Recurring revenue</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>Macro, Sector trend, Financial metric - Bank</t>
+          <t>Financial metric - All</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>During the third quarter of 2023, we recorded an adjustment of $2.3 million ($1.7 million, net of tax) to previous restructuring charges as we refined our estimate for the realignment of resources and other costs recorded in Q2 2023. See the Notes to this reconciliation for additional detail.</t>
+          <t>Local currency revenue change is calculated by conforming 2023 results using 2022 exchange rates.</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>0.2714290022850037</v>
+        <v>0.3230729401111603</v>
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t>Distribution costs, Buying costs, Risk adjustment</t>
+          <t>Recurring revenue</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>Sector trend</t>
+          <t>Financial metric - All</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Reconciliation of operating income by segment to Adjusted EBITDA, excluding depreciation and amortization expense, other income, net, noncontrolling interest, accrual for legal and regulatory matters related to the 2017 cybersecurity incident, fair value adjustment and gain on sale of equity investments, foreign currency impact of certain intercompany loans, acquisition-related costs other than acquisition amortization, Argentina highly inflationary foreign currency adjustment, realignment of resources and other costs, gain on settlement of Canada pension and presentation of adjusted EBITDA margin for each of the segments:</t>
+          <t>Organic local currency revenue growth is defined as local currency revenue growth, adjusted to reflect an increase in prior year Equifax revenue from the revenue of acquired companies in the prior year period</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>0.3817514181137085</v>
+        <v>0.1018252074718475</v>
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t>Gross margin, Contribution margin, Collateral value, Distribution costs, Buying costs, Credit income, Risk adjustment</t>
+          <t>Core growth, Recurring revenue, Aftermarket growth, Loan growth, 2 year – 10 year spread, Wage increase, Supplier price increase, Organic growth, Premium growth</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>Sector trend, Financial metric - Bank, Financial metric - All</t>
+          <t>Financial metric - Bank, Sector trend, Macro, Financial metric - Insurance, Financial metric - All</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>*Excludes interest income of $0.5 million in International.</t>
+          <t>This adjustment is made for 12 months following the acquisition.</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>0.3348067998886108</v>
+        <v>0.1018252074718475</v>
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t>ECB interest rate, Credit income</t>
+          <t>Risk adjustment</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>Sector trend, Regulation</t>
+          <t>Sector trend</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>During the third quarter of 2023, we recorded pre-tax expenses of $14.2 million for an accrual for legal and regulatory matters related to the 2017 cybersecurity incident, a $0.2 million loss on the fair value adjustment of equity investments, a $0.4 million foreign currency gain on certain intercompany loans, $24.4 million for acquisition-related costs other than acquisition amortization, a foreign currency loss of $0.4 million related to the impact of remeasuring the peso denominated monetary assets and liabilities as a result of Argentina being a highly inflationary economy and $2.3 million of an adjustment to previous restructuring charges as we refined our estimate for the realignment of resources and other costs recorded in Q2 2023.</t>
+          <t>Mortgage Market credit inquiry volume that is included in the 2023 fourth quarter and full year guidance provided?</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>0.388858437538147</v>
+        <v>0.2390177398920059</v>
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t>Risk-weighted assets / Risk-weightings, Collateral value, Distribution costs, Buying costs, Risk adjustment</t>
+          <t>Mortgage Fees, Market Fees, 2 year – 10 year spread, Market share, Market share</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>Sector trend, Financial metric - Bank</t>
+          <t>Financial metric - Bank, Sector trend, Macro</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>During the third quarter of 2022, we recorded pre-tax expenses of $0.2 million for accrual for legal and regulatory matters related to the 2017 cybersecurity incident, a $17.5 million unrealized gain on the fair value adjustment and gain on sale of equity investments, a $0.5 million foreign currency gain on certain intercompany loans, $19.1 million in acquisition-related costs other than acquisition amortization, a $0.2 million foreign currency gain related to the impact of remeasuring the peso denominated monetary assets and liabilities as a result of Argentina being a highly inflationary economy and a gain of $2.2 million on the settlement of Canada pension plan.</t>
+          <t>The change year over year in total U.S</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>0.3358124196529388</v>
+        <v>0.1127496063709259</v>
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t>Risk-weighted assets / Risk-weightings, Collateral value, Distribution costs, Buying costs, Risk adjustment</t>
+          <t>2 year – 10 year spread</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>Sector trend, Financial metric - Bank</t>
+          <t>Macro</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Diluted EPS attributable to Equifax is adjusted for the following items:</t>
+          <t>The guidance provided on page 3 assumes a change year over year in total U.S</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>0.2228186130523682</v>
+        <v>0.1127496063709259</v>
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t>Earnings per Share / EPS</t>
+          <t>2 year – 10 year spread</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>Financial metric - All</t>
+          <t>Macro</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Acquisition-related amortization expense - During the third quarter of 2023 and 2022, we recorded acquisition -related amortization expense of certain acquired intangibles of $64.4 million ($51.7 million, net of tax) and $59.1 million ($48.1 million, net of tax), respectively. We calculate this financial measure by excluding the impact of acquisition-related amortization expense and including a benefit to reflect the material cash income tax savings resulting from the income tax deductibility of amortization for certain acquired intangibles. These financial measures are not prepared in conformity with GAAP. Management believes excluding the impact of amortization expense is useful because excluding acquisition -related amortization and other items that are not comparable allows investors to evaluate our performance for different periods on a more comparable basis. Certain acquired intangibles result in material cash income tax savings which are not reflected in earnings. Management believes that including a benefit to reflect the cash income tax savings is useful as it allows investors to better value Equifax. Management makes these adjustments to earnings when measuring profitability, evaluating performance trends, setting performance objectives and calculating our return on invested capital.</t>
+          <t>Mortgage Market Credit inquiries received by Equifax in the fourth quarter of 2023 to be a decline of about 22%</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>0.4140325784683228</v>
+        <v>0.1127496063709259</v>
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t>Raw material, Wealth Management, Collateral value, Logistics expense, Credit income, Credit portfolio performance</t>
+          <t>Mortgage Fees, Market Fees, Private Credit, Credit cost, Market share, Credit card fees, Credit income, Credit portfolio performance, Market share</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>Sector trend, Financial metric - Bank, Financial metric - All</t>
+          <t>Financial metric - Bank, Sector trend</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Accrual for legal and regulatory matters related to the 2017 cybersecurity incident-Accrual for legal and regulatory matters related to the 2017 cybersecurity incident includes legal fees to respond to subsequent litigation and government investigations for both periods presented. During the third quarter of 2023, we recorded an accrual for legal and regulatory matters related to the 2017 cybersecurity incident of $ 14.2 million primarily driven by our accrual for a penalty associated with resolution of the investigation of the incident by the Financial Conduct Authority in the United Kingdom. During the third quarter of 2022, we recorded an accrual for legal and regulatory matters related to the 2017 cybersecurity incident of $0.2 million ($0.1 million, net of tax). Management believes excluding these charges is useful as it allows investors to evaluate our performance for different periods on a more comparable basis. Management makes these adjustments to net income when measuring profitability, evaluating performance trends, setting performance objectives and calculating our return on invested capital. This is consistent with how management reviews and assesses Equifax's historical performance and is useful when planning, forecasting and analyzing future periods.</t>
+          <t>For full year 2023, our guidance assumes a decline of about 34%.</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>0.5225884914398193</v>
+        <v>0.1127496063709259</v>
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t>Wealth Management, AML litigation, Credit card fees, Credit income, Credit portfolio performance</t>
+          <t>2 year – 10 year spread</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>Sector trend, Financial metric - Bank, Regulation</t>
+          <t>Macro</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Fair market value adjustment and gain on sale of equity investments- During the third quarter of 2023, we recorded a $0.2 million ($0.1 million, net of tax) loss related to adjusting our investment in Brazil to fair value at the date of the acquisition. On August 7, 2023, we purchased the remaining interest of our equity investment in Brazil. The investment in Brazil has a readily determinable fair value and the carrying value of the investment was adjusted to fair value as of the close date, resulting in a loss. Prior to the acquisition, the investment in Brazil was adjusted to fair value at the end of each reporting period, with unrealized gains or losses recorded within the Consolidated Statements of Income in Other income, net. During the third quarter of 2022 we recorded a $17.5 million ($ 11.4 million, net of tax) unrealized gain related to adjusting our investment in Brazil to fair value and gain related to the sale of an equity method investment. Management believes excluding these charges from certain</t>
+          <t>In the third quarter of 2023, what was the revenue impact of foreign currency versus the July revenue guidance?</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>0.4205318093299866</v>
+        <v>0.2319660037755966</v>
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t>Net Interest Income, Fee Income, Wealth Management, Collateral value, ECB interest rate, Hard market, Risk adjustment</t>
+          <t>Recurring revenue</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>Sector trend, Financial metric - Bank, Regulation</t>
+          <t>Financial metric - All</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>financial results provides meaningful supplemental information regarding our financial results for the three months ended September 30, 2023 and 2022, since the non-operating gains or losses are not comparable among the periods. This is consistent with how our management reviews and assesses Equifax's historical performance and is useful when planning, forecasting and analyzing future periods.</t>
+          <t>dollar resulted in a lower third quarter of 2023 Equifax revenue from foreign currency exchange of $6 million versus the quarterly revenue guidance we provided in July 2023.</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>0.3243068158626556</v>
+        <v>0.2308286130428314</v>
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t>Credit portfolio performance</t>
+          <t>Recurring revenue</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>Sector trend</t>
+          <t>Financial metric - All</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Foreign currency impact of certain intercompany loans - During the third quarter of 2023 and 2022, we recorded a gain of $0.4 million and $0.5 million, respectively, related to foreign currency impact of certain intercompany loans. Management believes excluding this charge is useful as it allows investors to evaluate our performance for different periods on a more comparable basis. This is consistent with how management reviews and assesses Equifax's historical performance and is useful when planning, forecasting and analyzing future periods.</t>
+          <t>(Dollars in millions, except per share amounts)</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>0.2519102096557617</v>
+        <v>0.3460268974304199</v>
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t>Wealth Management, Non-performing loans, Stage 2 loans, Stage 3 loans, Credit portfolio performance</t>
+          <t>Earnings per Share / EPS, Rate per contract, Market share, Units per transaction, Market share</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>Sector trend, Financial metric - Bank</t>
+          <t>Financial metric - Bank, Sector trend, Financial metric - All</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Acquisition-related costs other than acquisition amortization - During the third quarter of</t>
+          <t>Reconciliation of net income attributable to Equifax to diluted EPS attributable to Equifax, defined as net income adjusted for acquisition-related amortization expense, accrual for legal and regulatory matters related to the 2017 cybersecurity incident, fair value adjustment and gain on sale of equity investments, foreign currency impact of certain intercompany loans, acquisition-related costs other than acquisition</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>0.4123052060604095</v>
+        <v>0.08007465302944183</v>
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t>Distribution costs, Buying costs</t>
+          <t>Earnings per Share / EPS, Collateral value, Distribution costs, Buying costs, Credit income, Risk adjustment</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>Sector trend</t>
+          <t>Financial metric - Bank, Sector trend, Financial metric - All</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>($14.4 million, net of tax), respectively, for acquisition-related costs other than acquisition</t>
+          <t>amortization, income tax effect of stock awards recognized upon vesting or settlement, Argentina highly inflationary foreign currency adjustment, realignment of resources and other costs, gain on settlement of Canada pension plan, adjustments to deferred tax balances and aggregated tax impact of these adjustments:</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>0.3018787801265717</v>
+        <v>0.2636582851409912</v>
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t>Distribution costs, Buying costs</t>
+          <t>Credit income</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
@@ -2406,15 +2406,15 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>amortization. These costs primarily related to integration costs resulting from recent</t>
+          <t>During the third quarter of 2023, we recorded acquisition-related amortization expense of certain acquired intangibles of $64.4 million ($51.7 million, net of tax)</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>0.3729201555252075</v>
+        <v>0.1509461402893066</v>
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t>Distribution costs, Buying costs</t>
+          <t>Logistics expense</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
@@ -2426,35 +2426,35 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>acquisitions and were recorded in operating income. Management believes excluding this</t>
+          <t>We calculate this financial measure by excluding the impact of acquisition-related amortization expense and including a benefit to reflect the significant cash income tax savings resulting from the income tax deductibility of amortization for certain acquired intangibles</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>0.4175646007061005</v>
+        <v>0.1509461402893066</v>
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t>Wealth Management</t>
+          <t>Logistics expense, Credit income</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>Financial metric - Bank</t>
+          <t>Sector trend</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>historical performance and is useful when planning, forecasting, and analyzing future</t>
+          <t>The $12.7 million of tax is comprised of $16.7 million of tax expense net of $4.0 million of a cash income tax benefit</t>
         </is>
       </c>
       <c r="B102" t="n">
-        <v>0.4330041110515594</v>
+        <v>0.1509461402893066</v>
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t>Credit portfolio performance</t>
+          <t>Logistics expense, Credit income</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
@@ -2466,140 +2466,1700 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>Income tax effects of stock awards that are recognized upon vesting or settlement-During the third quarter of 2023, we recorded a tax benefit of $0.3 million related to the tax effects of deductions for stock compensation in excess of amounts recorded for compensation costs. During the third quarter of 2022, we recorded a tax benefit of $0.2 million related to the tax effects of deductions for stock compensation in excess of amounts recorded for compensation costs. Management believes excluding this tax effect from financial results provides meaningful supplemental information regarding our financial results for the three months ended September 30, 2023 and 2022 because these amounts are non-operating and relate to income tax benefits or deficiencies for stock awards recognized when tax amounts differ from recognized stock compensation cost. This is consistent with how management reviews and assesses Equifax's historical performance and is useful when planning, forecasting and analyzing future periods.</t>
+          <t>During the third quarter of 2022, we recorded acquisition-related amortization expense of certain acquired intangibles of $59.1 million ($48.1 million, net of tax)</t>
         </is>
       </c>
       <c r="B103" t="n">
-        <v>0.4778542518615723</v>
+        <v>0.1509461402893066</v>
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t>Incentive compensation, Net Interest Income, Fee Income, Wealth Management, Credit income, Credit portfolio performance</t>
+          <t>Logistics expense</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>Sector trend, Financial metric - Bank, Financial metric - All</t>
+          <t>Sector trend</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Argentina highly inflationary foreign currency adjustment - Argentina experienced multiple periods of increasing inflation rates, devaluation of the peso, and increasing borrowing rates. As such, Argentina was deemed a highly inflationary economy by accounting policymakers. We recorded a foreign currency loss of $0.4 million and a foreign currency gain of $0.2 million during the third quarter of 2023 and 2022, respectively, as a result of remeasuring the peso denominated monetary assets and liabilities due to Argentina being highly inflationary. Management believes excluding this charge is useful as it allows investors to evaluate our performance for different periods on a more comparable basis. This is consistent with how management reviews and assesses Equifax's historical performance and is useful when planning, forecasting and analyzing future periods.</t>
+          <t>The $11.0 million of tax is comprised of $15.1 million of tax expense net of $4.1 million of a cash income tax benefit</t>
         </is>
       </c>
       <c r="B104" t="n">
-        <v>0.1629590392112732</v>
+        <v>0.1509461402893066</v>
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t>Wealth Management, Risk-weighted assets / Risk-weightings, Social inflation, Materials inflation, Claims inflation, Credit portfolio performance, Risk adjustment</t>
+          <t>Logistics expense, Credit income</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>Macro, Sector trend, Financial metric - Bank</t>
+          <t>Sector trend</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Adjustment related to the realignment of resources and other costs - During the third</t>
+          <t>During the third quarter of 2023, we recorded a loss on the fair market value adjustment of equity investments of $0.2 million</t>
         </is>
       </c>
       <c r="B105" t="n">
-        <v>0.4002843499183655</v>
+        <v>0.2153848707675934</v>
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t>Distribution costs, Buying costs</t>
+          <t>Collateral value, Hard market, Risk adjustment</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>Sector trend</t>
+          <t>Financial metric - Bank, Sector trend</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>quarter of 2023, we recorded an adjustment of $2.3 million ($ 1.7 million, net of tax) to previous restructuring charges as we refined our estimate for the realignment of resources and other costs recorded in Q2 2023. Management believes excluding this adjustment from certain financial results provides meaningful supplemental information regarding our financial results for the three months ended September 30, 2023, since the adjustment is not comparable among the periods. This is consistent with how our management reviews and assesses Equifax's historical performance and is useful when planning, forecasting and analyzing future periods.</t>
+          <t>During the third quarter of 2022, we recorded an unrealized gain on the fair market value adjustment and gain on sale of equity investments of $17.5 million ($11.4 million, net of tax)</t>
         </is>
       </c>
       <c r="B106" t="n">
-        <v>0.2690179347991943</v>
+        <v>0.1940633058547974</v>
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t>Wealth Management, Distribution costs, Buying costs, Credit portfolio performance, Risk adjustment</t>
+          <t>Collateral value, Hard market, Risk adjustment</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>Sector trend, Financial metric - Bank</t>
+          <t>Financial metric - Bank, Sector trend</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>Gain on settlement of Canada pension plan - During the third quarter of 2022, we recorded an gain on the settlement of our Canada pension plan of $2.2 million ($3.1 million, net of tax). We received a tax deduction for the settlement payments made resulting in a tax benefit. Management believes excluding this charge is useful as it allows investors to evaluate our performance for different periods on a more comparable basis. The impact is recorded to the Other income, net line item within the Consolidated Statements of Income.</t>
+          <t>The fair value adjustments were recorded to the Other income, net line item within the Consolidated Statements of Income</t>
         </is>
       </c>
       <c r="B107" t="n">
-        <v>0.3512298464775085</v>
+        <v>0.1940633058547974</v>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>Wealth Management, Credit portfolio performance</t>
+          <t>Net Interest Income, Fee Income, Collateral value</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>Sector trend, Financial metric - Bank</t>
+          <t>Financial metric - Bank</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>Adjustments to deferred tax balances - During the third quarter of 2023, we recorded a tax benefit of $28.2 million related to the write off of a deferred tax liability related to our original investment in Boa Vista Serviços as a result of our purchase of the remaining interest in Boa Vista Serviços in the same quarter. We determined the deferred tax balance should no longer be recorded as a result of our purchase of the remaining interest in Boa Vista Serviços during the third quarter of 2023. Management believes excluding this tax effect from certain financial results provides meaningful supplemental information regarding our financial results for the three months ended September 30, 2023, since this tax benefit is not comparable among the periods. This is consistent with how management reviews and assesses Equifax's historical performance and is useful when planning, forecasting and analyzing future periods.</t>
+          <t>During the third quarter of 2023, we recorded a foreign currency gain on certain intercompany loans of $0.4 million</t>
         </is>
       </c>
       <c r="B108" t="n">
-        <v>0.3995577096939087</v>
+        <v>0.2132134288549423</v>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>Wealth Management, ECB interest rate, Credit portfolio performance</t>
+          <t>Non-performing loans, Stage 2 loans, Stage 3 loans</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>Sector trend, Financial metric - Bank, Regulation</t>
+          <t>Financial metric - Bank</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Adjusted EBITDA and EBITDA margin - Management defines adjusted EBITDA as consolidated net income attributable to Equifax plus net interest expense, income taxes, depreciation and amortization and also excludes certain one-time items. Management believes the use of adjusted EBITDA and adjusted EBITDA margin allows investors to evaluate our performance for different periods on a more comparable basis.</t>
+          <t>During the third quarter of 2022, we recorded a foreign currency gain on certain intercompany loans of $0.5 million</t>
         </is>
       </c>
       <c r="B109" t="n">
-        <v>0.2106823623180389</v>
+        <v>0.2132134288549423</v>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>Gross margin, Contribution margin, Wealth Management, ECB interest rate, Credit income, Credit portfolio performance</t>
+          <t>Non-performing loans, Stage 2 loans, Stage 3 loans</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>Sector trend, Financial metric - Bank, Regulation, Financial metric - All</t>
+          <t>Financial metric - Bank</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>The impact was recorded to the Other income, net line item within the Consolidated Statements of Income</t>
+        </is>
+      </c>
+      <c r="B110" t="n">
+        <v>0.2132134288549423</v>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>Net Interest Income, Fee Income</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>Financial metric - Bank</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>During the third quarter of 2023, we recorded $24.4 million ($19.9 million, net of tax) for acquisition-related costs other than acquisition amortization</t>
+        </is>
+      </c>
+      <c r="B111" t="n">
+        <v>0.1345184743404388</v>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>Distribution costs, Buying costs</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>Sector trend</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>During the third quarter of 2022, we recorded $19.1 million ($14.4 million, net of tax) for acquisition-related costs other than acquisition amortization</t>
+        </is>
+      </c>
+      <c r="B112" t="n">
+        <v>0.1345184743404388</v>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>Distribution costs, Buying costs</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>Sector trend</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>These costs primarily related to integration costs resulting from recent acquisition activity and were recorded in operating income</t>
+        </is>
+      </c>
+      <c r="B113" t="n">
+        <v>0.1345184743404388</v>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>Distribution costs, Buying costs, Credit income</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>Sector trend</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>During the third quarter of 2023, we recorded a tax benefit of $0.3 million related to the tax effects of deductions for stock compensation in excess of amounts recorded for compensation costs</t>
+        </is>
+      </c>
+      <c r="B114" t="n">
+        <v>0.03733727335929871</v>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>Incentive compensation, Distribution costs, Buying costs</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>Sector trend, Financial metric - All</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>During the third quarter of 2022, we recorded a tax benefit of $0.2 million related to the tax effects of deductions for stock compensation expense in excess of amounts recorded for compensation costs</t>
+        </is>
+      </c>
+      <c r="B115" t="n">
+        <v>0.03733727335929871</v>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>Incentive compensation, Logistics expense, Distribution costs, Buying costs</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>Sector trend, Financial metric - All</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>Argentina experienced multiple periods of increasing inflation rates, devaluation of the peso, and increasing borrowing rates</t>
+        </is>
+      </c>
+      <c r="B116" t="n">
+        <v>0.2952864766120911</v>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>Social inflation, Interest rates, Materials inflation, Claims inflation, Order rates</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>Sector trend, Macro</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>During the third quarter of 2023 and 2022, we recorded a foreign currency loss of $0.4 million and a foreign currency gain of $0.2 million, respectively, related to the impact of remeasuring the peso denominated monetary assets and liabilities as a result of Argentina being a highly inflationary economy</t>
+        </is>
+      </c>
+      <c r="B117" t="n">
+        <v>0.2952864766120911</v>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>Risk-weighted assets / Risk-weightings</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>Financial metric - Bank</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>During the third quarter of 2023, we recorded an adjustment of $2.3 million ($1.7 million, net of tax) to previous restructuring charges as we refined our estimate for the realignment of resources and other costs recorded in Q2 2023</t>
+        </is>
+      </c>
+      <c r="B118" t="n">
+        <v>0.2805380821228027</v>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>Distribution costs, Buying costs, Risk adjustment</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>Sector trend</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>The impact is recorded to the Other income, net line item within the Consolidated Statements of Income</t>
+        </is>
+      </c>
+      <c r="B119" t="n">
+        <v>0.2436894178390503</v>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>Net Interest Income, Fee Income</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>Financial metric - Bank</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>During the third quarter of 2023, we recorded a tax benefit of $28.2 million related to the write off of a deferred tax liability related to our original investment in Boa Vista Serviços as a result of our purchase of the remaining interest in Boa Vista Serviços in the same quarter</t>
+        </is>
+      </c>
+      <c r="B120" t="n">
+        <v>0.1559906005859375</v>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>ECB interest rate</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>Regulation</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>During the third quarter of 2023, we recorded the tax impact of adjustments of $16.7 million comprised of (i) acquisition-related amortization expense of certain acquired intangibles of $12.7 million ($16.7 million of tax expense net of $4.0 million of cash income tax benefit), (ii) a tax adjustment of $0.1 million related to the fair market value adjustment of equity investments, (iii) a tax adjustment of $4.5 million related to acquisition-related costs other than acquisition amortization and (iv) a tax adjustment of $0.6 million related to the realignment of resources.</t>
+        </is>
+      </c>
+      <c r="B121" t="n">
+        <v>0.0658840537071228</v>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>Collateral value, Hard market, Logistics expense, Distribution costs, Buying costs, Credit income, Risk adjustment</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>Financial metric - Bank, Sector trend</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>During the third quarter of 2022, we recorded the tax impact of adjustments of $10.6 million comprised of (i) acquisition-related amortization expense of certain acquired intangibles of $11.0 million ($15.1 million of tax expense net of $4.1 million of cash income tax benefit), (ii) a tax adjustment of $0.1 million related to an accrual for legal and regulatory matters related to the 2017 cybersecurity incident, (iii) a tax adjustment of $6.1 million related to the gain on fair market value adjustment and gain on sale of equity investment, (iv) a tax adjustment of $4.7 million related to acquisition-related costs other than acquisition amortization and</t>
+        </is>
+      </c>
+      <c r="B122" t="n">
+        <v>0.05403235554695129</v>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>Collateral value, Hard market, Logistics expense, Distribution costs, Buying costs, Credit income, Risk adjustment</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>Financial metric - Bank, Sector trend</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>(v) a tax adjustment of $0.9 million related to the gain on settlement of Canada pension plan.</t>
+        </is>
+      </c>
+      <c r="B123" t="n">
+        <v>0.232411801815033</v>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>Risk adjustment</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>Sector trend</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>Reconciliation of net income attributable to Equifax to adjusted EBITDA, defined as net income excluding income taxes, interest expense, net, depreciation and amortization expense, accrual for legal and regulatory matters related to the 2017 cybersecurity incident, fair value adjustment and gain on sale of equity investments, foreign currency impact of certain intercompany loans, acquisition-related costs other than acquisition amortization, Argentina highly inflationary foreign currency adjustment, realignment of resources and other costs, gain on settlement of Canada pension and presentation of adjusted EBITDA margin:</t>
+        </is>
+      </c>
+      <c r="B124" t="n">
+        <v>0.1127928420901299</v>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>Collateral value, ECB interest rate, Distribution costs, Buying costs, Credit income, Risk adjustment</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>Financial metric - Bank, Regulation, Sector trend</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>*Excludes interest income of $6.2 million in 2023 and $0.5 million 2022.</t>
+        </is>
+      </c>
+      <c r="B125" t="n">
+        <v>0.1762863248586655</v>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>ECB interest rate, Credit income</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>Sector trend, Regulation</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>During the third quarter of 2023, we recorded a loss on the fair market value adjustment of equity investments of $0.2 million</t>
+        </is>
+      </c>
+      <c r="B126" t="n">
+        <v>0.2153848707675934</v>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>Collateral value, Hard market, Risk adjustment</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>Financial metric - Bank, Sector trend</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>During the third quarter of 2022, we recorded an unrealized gain on the fair market value adjustment and gain on sale of equity investments of $17.5 million ($11.4 million, net of tax)</t>
+        </is>
+      </c>
+      <c r="B127" t="n">
+        <v>0.1940633058547974</v>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>Collateral value, Hard market, Risk adjustment</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>Financial metric - Bank, Sector trend</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>The fair value adjustments were recorded to the Other income, net line item within the Consolidated Statements of Income</t>
+        </is>
+      </c>
+      <c r="B128" t="n">
+        <v>0.1940633058547974</v>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>Net Interest Income, Fee Income, Collateral value</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>Financial metric - Bank</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>During the third quarter of 2023, we recorded a foreign currency gain on certain intercompany loans of $0.4 million</t>
+        </is>
+      </c>
+      <c r="B129" t="n">
+        <v>0.2292188405990601</v>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>Non-performing loans, Stage 2 loans, Stage 3 loans</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>Financial metric - Bank</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>During the third quarter of 2022, we recorded a foreign currency gain on certain intercompany loans of $0.5 million</t>
+        </is>
+      </c>
+      <c r="B130" t="n">
+        <v>0.2292188405990601</v>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>Non-performing loans, Stage 2 loans, Stage 3 loans</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>Financial metric - Bank</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>During the third quarter of 2023, we recorded $24.4 million ($19.9 million, net of tax) for acquisition-related costs other than acquisition amortization</t>
+        </is>
+      </c>
+      <c r="B131" t="n">
+        <v>0.1345184743404388</v>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>Distribution costs, Buying costs</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>Sector trend</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>During the third quarter of 2022, we recorded $19.1 million ($14.4 million, net of tax) for acquisition-related costs other than acquisition amortization</t>
+        </is>
+      </c>
+      <c r="B132" t="n">
+        <v>0.1345184743404388</v>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>Distribution costs, Buying costs</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>Sector trend</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>These costs primarily related to integration costs resulting from recent acquisition activity and were recorded in operating income</t>
+        </is>
+      </c>
+      <c r="B133" t="n">
+        <v>0.1345184743404388</v>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>Distribution costs, Buying costs, Credit income</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>Sector trend</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>Argentina experienced multiple periods of increasing inflation rates, devaluation of the peso, and increasing borrowing rates</t>
+        </is>
+      </c>
+      <c r="B134" t="n">
+        <v>0.2952864766120911</v>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>Social inflation, Interest rates, Materials inflation, Claims inflation, Order rates</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>Sector trend, Macro</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>During the third quarter of 2023 and 2022, we recorded a foreign currency loss of $0.4 million and a foreign currency gain of $0.2 million, respectively, related to the impact of remeasuring the peso denominated monetary assets and liabilities as a result of Argentina being a highly inflationary economy</t>
+        </is>
+      </c>
+      <c r="B135" t="n">
+        <v>0.2952864766120911</v>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>Risk-weighted assets / Risk-weightings</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>Financial metric - Bank</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>During the third quarter of 2023, we recorded an adjustment of $2.3 million ($1.7 million, net of tax) to previous restructuring charges as we refined our estimate for the realignment of resources and other costs recorded in Q2 2023</t>
+        </is>
+      </c>
+      <c r="B136" t="n">
+        <v>0.2805380821228027</v>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>Distribution costs, Buying costs, Risk adjustment</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>Sector trend</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>The impact is recorded to the Other income, net line item within the Consolidated Statements of Income</t>
+        </is>
+      </c>
+      <c r="B137" t="n">
+        <v>0.2436894178390503</v>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>Net Interest Income, Fee Income</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>Financial metric - Bank</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>Reconciliation of operating income by segment to Adjusted EBITDA, excluding depreciation and amortization expense, other income, net, noncontrolling interest, accrual for legal and regulatory matters related to the 2017 cybersecurity incident, fair value adjustment and gain on sale of equity investments, foreign currency impact of certain intercompany loans, acquisition-related costs other than acquisition amortization, Argentina highly inflationary foreign currency adjustment, realignment of resources and other costs, gain on settlement of Canada pension and presentation of adjusted EBITDA margin for each of the segments:</t>
+        </is>
+      </c>
+      <c r="B138" t="n">
+        <v>0.1739576160907745</v>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>Gross margin, Contribution margin, Collateral value, Distribution costs, Buying costs, Credit income, Risk adjustment</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>Financial metric - Bank, Sector trend, Financial metric - All</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>*Excludes interest income of $0.5 million in International.</t>
+        </is>
+      </c>
+      <c r="B139" t="n">
+        <v>0.2099321484565735</v>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>ECB interest rate, Credit income</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>Sector trend, Regulation</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>During the third quarter of 2023, we recorded pre-tax expenses of $14.2 million for an accrual for legal and regulatory matters related to the 2017 cybersecurity incident, a $0.2 million loss on the fair value adjustment of equity investments, a $0.4 million foreign currency gain on certain intercompany loans, $24.4 million for acquisition-related costs other than acquisition amortization, a foreign currency loss of $0.4 million related to the impact of remeasuring the peso denominated monetary assets and liabilities as a result of Argentina being a highly inflationary economy and $2.3 million of an adjustment to previous restructuring charges as we refined our estimate for the realignment of resources and other costs recorded in Q2 2023.</t>
+        </is>
+      </c>
+      <c r="B140" t="n">
+        <v>0.008919477462768555</v>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>Risk-weighted assets / Risk-weightings, Collateral value, Distribution costs, Buying costs, Risk adjustment</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>Financial metric - Bank, Sector trend</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>During the third quarter of 2022, we recorded pre-tax expenses of $0.2 million for accrual for legal and regulatory matters related to the 2017 cybersecurity incident, a $17.5 million unrealized gain on the fair value adjustment and gain on sale of equity investments, a $0.5 million foreign currency gain on certain intercompany loans, $19.1 million in acquisition-related costs other than acquisition amortization, a $0.2 million foreign currency gain related to the impact of remeasuring the peso denominated monetary assets and liabilities as a result of Argentina being a highly inflationary economy and a gain of $2.2 million on the settlement of Canada pension plan.</t>
+        </is>
+      </c>
+      <c r="B141" t="n">
+        <v>0.001204535365104675</v>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>Risk-weighted assets / Risk-weightings, Collateral value, Distribution costs, Buying costs, Risk adjustment</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>Financial metric - Bank, Sector trend</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>Diluted EPS attributable to Equifax is adjusted for the following items:</t>
+        </is>
+      </c>
+      <c r="B142" t="n">
+        <v>0.3124485015869141</v>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>Earnings per Share / EPS</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>Financial metric - All</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>Acquisition-related amortization expense - During the third quarter of 2023 and 2022, we recorded acquisition -related amortization expense of certain acquired intangibles of $64.4 million ($51.7 million, net of tax) and $59.1 million ($48.1 million, net of tax), respectively</t>
+        </is>
+      </c>
+      <c r="B143" t="n">
+        <v>-0.3460422158241272</v>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>Logistics expense</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>Sector trend</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>We calculate this financial measure by excluding the impact of acquisition-related amortization expense and including a benefit to reflect the material cash income tax savings resulting from the income tax deductibility of amortization for certain acquired intangibles</t>
+        </is>
+      </c>
+      <c r="B144" t="n">
+        <v>-0.3460422158241272</v>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>Raw material, Logistics expense, Credit income</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>Sector trend, Financial metric - All</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>Management believes excluding the impact of amortization expense is useful because excluding acquisition -related amortization and other items that are not comparable allows investors to evaluate our performance for different periods on a more comparable basis</t>
+        </is>
+      </c>
+      <c r="B145" t="n">
+        <v>-0.3460422158241272</v>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>Wealth Management, Logistics expense, Credit portfolio performance</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>Financial metric - Bank, Sector trend</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>Certain acquired intangibles result in material cash income tax savings which are not reflected in earnings</t>
+        </is>
+      </c>
+      <c r="B146" t="n">
+        <v>-0.3460422158241272</v>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>Raw material, Credit income</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>Sector trend, Financial metric - All</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>Management believes that including a benefit to reflect the cash income tax savings is useful as it allows investors to better value Equifax</t>
+        </is>
+      </c>
+      <c r="B147" t="n">
+        <v>-0.3460422158241272</v>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>Wealth Management, Collateral value, Credit income</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>Financial metric - Bank, Sector trend</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>Management makes these adjustments to earnings when measuring profitability, evaluating performance trends, setting performance objectives and calculating our return on invested capital.</t>
+        </is>
+      </c>
+      <c r="B148" t="n">
+        <v>-0.3460422158241272</v>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>Wealth Management, Credit portfolio performance</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>Financial metric - Bank, Sector trend</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>Accrual for legal and regulatory matters related to the 2017 cybersecurity incident-Accrual for legal and regulatory matters related to the 2017 cybersecurity incident includes legal fees to respond to subsequent litigation and government investigations for both periods presented</t>
+        </is>
+      </c>
+      <c r="B149" t="n">
+        <v>-0.07756868004798889</v>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>AML litigation, Credit card fees</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>Sector trend, Regulation</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>Management believes excluding these charges is useful as it allows investors to evaluate our performance for different periods on a more comparable basis</t>
+        </is>
+      </c>
+      <c r="B150" t="n">
+        <v>-0.07756868004798889</v>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>Wealth Management, Credit portfolio performance</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>Financial metric - Bank, Sector trend</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>Management makes these adjustments to net income when measuring profitability, evaluating performance trends, setting performance objectives and calculating our return on invested capital</t>
+        </is>
+      </c>
+      <c r="B151" t="n">
+        <v>-0.07756868004798889</v>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>Wealth Management, Credit income, Credit portfolio performance</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>Financial metric - Bank, Sector trend</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>This is consistent with how management reviews and assesses Equifax's historical performance and is useful when planning, forecasting and analyzing future periods.</t>
+        </is>
+      </c>
+      <c r="B152" t="n">
+        <v>-0.07756868004798889</v>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>Credit portfolio performance</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>Sector trend</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>Fair market value adjustment and gain on sale of equity investments- During the third quarter of 2023, we recorded a $0.2 million ($0.1 million, net of tax) loss related to adjusting our investment in Brazil to fair value at the date of the acquisition</t>
+        </is>
+      </c>
+      <c r="B153" t="n">
+        <v>-0.07242405414581299</v>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>Collateral value, Hard market, Risk adjustment</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>Financial metric - Bank, Sector trend</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>On August 7, 2023, we purchased the remaining interest of our equity investment in Brazil</t>
+        </is>
+      </c>
+      <c r="B154" t="n">
+        <v>-0.07242405414581299</v>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>ECB interest rate</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>Regulation</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>The investment in Brazil has a readily determinable fair value and the carrying value of the investment was adjusted to fair value as of the close date, resulting in a loss</t>
+        </is>
+      </c>
+      <c r="B155" t="n">
+        <v>-0.07242405414581299</v>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>Collateral value</t>
+        </is>
+      </c>
+      <c r="D155" t="inlineStr">
+        <is>
+          <t>Financial metric - Bank</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>Prior to the acquisition, the investment in Brazil was adjusted to fair value at the end of each reporting period, with unrealized gains or losses recorded within the Consolidated Statements of Income in Other income, net</t>
+        </is>
+      </c>
+      <c r="B156" t="n">
+        <v>-0.07242405414581299</v>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>Net Interest Income, Fee Income, Collateral value</t>
+        </is>
+      </c>
+      <c r="D156" t="inlineStr">
+        <is>
+          <t>Financial metric - Bank</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>During the third quarter of 2022 we recorded a $17.5 million ($ 11.4 million, net of tax) unrealized gain related to adjusting our investment in Brazil to fair value and gain related to the sale of an equity method investment</t>
+        </is>
+      </c>
+      <c r="B157" t="n">
+        <v>-0.07242405414581299</v>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>Collateral value</t>
+        </is>
+      </c>
+      <c r="D157" t="inlineStr">
+        <is>
+          <t>Financial metric - Bank</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>Management believes excluding these charges from certain</t>
+        </is>
+      </c>
+      <c r="B158" t="n">
+        <v>-0.07242405414581299</v>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>Wealth Management</t>
+        </is>
+      </c>
+      <c r="D158" t="inlineStr">
+        <is>
+          <t>Financial metric - Bank</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>This is consistent with how our management reviews and assesses Equifax's historical performance and is useful when planning, forecasting and analyzing future periods.</t>
+        </is>
+      </c>
+      <c r="B159" t="n">
+        <v>0.1151448488235474</v>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>Credit portfolio performance</t>
+        </is>
+      </c>
+      <c r="D159" t="inlineStr">
+        <is>
+          <t>Sector trend</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>Foreign currency impact of certain intercompany loans - During the third quarter of 2023 and 2022, we recorded a gain of $0.4 million and $0.5 million, respectively, related to foreign currency impact of certain intercompany loans</t>
+        </is>
+      </c>
+      <c r="B160" t="n">
+        <v>-0.1966383904218674</v>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>Non-performing loans, Stage 2 loans, Stage 3 loans</t>
+        </is>
+      </c>
+      <c r="D160" t="inlineStr">
+        <is>
+          <t>Financial metric - Bank</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>Management believes excluding this charge is useful as it allows investors to evaluate our performance for different periods on a more comparable basis</t>
+        </is>
+      </c>
+      <c r="B161" t="n">
+        <v>-0.1966383904218674</v>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>Wealth Management, Credit portfolio performance</t>
+        </is>
+      </c>
+      <c r="D161" t="inlineStr">
+        <is>
+          <t>Financial metric - Bank, Sector trend</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>This is consistent with how management reviews and assesses Equifax's historical performance and is useful when planning, forecasting and analyzing future periods.</t>
+        </is>
+      </c>
+      <c r="B162" t="n">
+        <v>-0.1966383904218674</v>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>Credit portfolio performance</t>
+        </is>
+      </c>
+      <c r="D162" t="inlineStr">
+        <is>
+          <t>Sector trend</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>Acquisition-related costs other than acquisition amortization - During the third quarter of</t>
+        </is>
+      </c>
+      <c r="B163" t="n">
+        <v>0.1727413535118103</v>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>Distribution costs, Buying costs</t>
+        </is>
+      </c>
+      <c r="D163" t="inlineStr">
+        <is>
+          <t>Sector trend</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>($14.4 million, net of tax), respectively, for acquisition-related costs other than acquisition</t>
+        </is>
+      </c>
+      <c r="B164" t="n">
+        <v>0.1776432394981384</v>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>Distribution costs, Buying costs</t>
+        </is>
+      </c>
+      <c r="D164" t="inlineStr">
+        <is>
+          <t>Sector trend</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>These costs primarily related to integration costs resulting from recent</t>
+        </is>
+      </c>
+      <c r="B165" t="n">
+        <v>0.31977778673172</v>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>Distribution costs, Buying costs</t>
+        </is>
+      </c>
+      <c r="D165" t="inlineStr">
+        <is>
+          <t>Sector trend</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>acquisitions and were recorded in operating income</t>
+        </is>
+      </c>
+      <c r="B166" t="n">
+        <v>0.1164892166852951</v>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>Credit income</t>
+        </is>
+      </c>
+      <c r="D166" t="inlineStr">
+        <is>
+          <t>Sector trend</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>Management believes excluding this</t>
+        </is>
+      </c>
+      <c r="B167" t="n">
+        <v>0.1164892166852951</v>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>Wealth Management</t>
+        </is>
+      </c>
+      <c r="D167" t="inlineStr">
+        <is>
+          <t>Financial metric - Bank</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>historical performance and is useful when planning, forecasting, and analyzing future</t>
+        </is>
+      </c>
+      <c r="B168" t="n">
+        <v>0.2437445521354675</v>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>Credit portfolio performance</t>
+        </is>
+      </c>
+      <c r="D168" t="inlineStr">
+        <is>
+          <t>Sector trend</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>Income tax effects of stock awards that are recognized upon vesting or settlement-During the third quarter of 2023, we recorded a tax benefit of $0.3 million related to the tax effects of deductions for stock compensation in excess of amounts recorded for compensation costs</t>
+        </is>
+      </c>
+      <c r="B169" t="n">
+        <v>-0.2946923077106476</v>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>Incentive compensation, Net Interest Income, Fee Income, Distribution costs, Buying costs</t>
+        </is>
+      </c>
+      <c r="D169" t="inlineStr">
+        <is>
+          <t>Financial metric - Bank, Sector trend, Financial metric - All</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>During the third quarter of 2022, we recorded a tax benefit of $0.2 million related to the tax effects of deductions for stock compensation in excess of amounts recorded for compensation costs</t>
+        </is>
+      </c>
+      <c r="B170" t="n">
+        <v>-0.2946923077106476</v>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>Incentive compensation, Distribution costs, Buying costs</t>
+        </is>
+      </c>
+      <c r="D170" t="inlineStr">
+        <is>
+          <t>Sector trend, Financial metric - All</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>Management believes excluding this tax effect from financial results provides meaningful supplemental information regarding our financial results for the three months ended September 30, 2023 and 2022 because these amounts are non-operating and relate to income tax benefits or deficiencies for stock awards recognized when tax amounts differ from recognized stock compensation cost</t>
+        </is>
+      </c>
+      <c r="B171" t="n">
+        <v>-0.2946923077106476</v>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>Incentive compensation, Credit cost, Wealth Management, Fuel cost, Credit income, Price cost spread</t>
+        </is>
+      </c>
+      <c r="D171" t="inlineStr">
+        <is>
+          <t>Financial metric - Bank, Sector trend, Financial metric - All</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>This is consistent with how management reviews and assesses Equifax's historical performance and is useful when planning, forecasting and analyzing future periods.</t>
+        </is>
+      </c>
+      <c r="B172" t="n">
+        <v>-0.2946923077106476</v>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>Credit portfolio performance</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>Sector trend</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>Argentina highly inflationary foreign currency adjustment - Argentina experienced multiple periods of increasing inflation rates, devaluation of the peso, and increasing borrowing rates</t>
+        </is>
+      </c>
+      <c r="B173" t="n">
+        <v>-0.0069999098777771</v>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>Social inflation, Interest rates, Materials inflation, Claims inflation, Risk adjustment, Order rates</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
+        <is>
+          <t>Sector trend, Macro</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>We recorded a foreign currency loss of $0.4 million and a foreign currency gain of $0.2 million during the third quarter of 2023 and 2022, respectively, as a result of remeasuring the peso denominated monetary assets and liabilities due to Argentina being highly inflationary</t>
+        </is>
+      </c>
+      <c r="B174" t="n">
+        <v>-0.0069999098777771</v>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>Risk-weighted assets / Risk-weightings</t>
+        </is>
+      </c>
+      <c r="D174" t="inlineStr">
+        <is>
+          <t>Financial metric - Bank</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>Management believes excluding this charge is useful as it allows investors to evaluate our performance for different periods on a more comparable basis</t>
+        </is>
+      </c>
+      <c r="B175" t="n">
+        <v>-0.0069999098777771</v>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>Wealth Management, Credit portfolio performance</t>
+        </is>
+      </c>
+      <c r="D175" t="inlineStr">
+        <is>
+          <t>Financial metric - Bank, Sector trend</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>This is consistent with how management reviews and assesses Equifax's historical performance and is useful when planning, forecasting and analyzing future periods.</t>
+        </is>
+      </c>
+      <c r="B176" t="n">
+        <v>-0.0069999098777771</v>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>Credit portfolio performance</t>
+        </is>
+      </c>
+      <c r="D176" t="inlineStr">
+        <is>
+          <t>Sector trend</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>Adjustment related to the realignment of resources and other costs - During the third</t>
+        </is>
+      </c>
+      <c r="B177" t="n">
+        <v>0.4200527667999268</v>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>Distribution costs, Buying costs</t>
+        </is>
+      </c>
+      <c r="D177" t="inlineStr">
+        <is>
+          <t>Sector trend</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>quarter of 2023, we recorded an adjustment of $2.3 million ($ 1.7 million, net of tax) to previous restructuring charges as we refined our estimate for the realignment of resources and other costs recorded in Q2 2023</t>
+        </is>
+      </c>
+      <c r="B178" t="n">
+        <v>-0.0988374650478363</v>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>Distribution costs, Buying costs, Risk adjustment</t>
+        </is>
+      </c>
+      <c r="D178" t="inlineStr">
+        <is>
+          <t>Sector trend</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>Management believes excluding this adjustment from certain financial results provides meaningful supplemental information regarding our financial results for the three months ended September 30, 2023, since the adjustment is not comparable among the periods</t>
+        </is>
+      </c>
+      <c r="B179" t="n">
+        <v>-0.0988374650478363</v>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>Wealth Management, Risk adjustment</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>Financial metric - Bank, Sector trend</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>This is consistent with how our management reviews and assesses Equifax's historical performance and is useful when planning, forecasting and analyzing future periods.</t>
+        </is>
+      </c>
+      <c r="B180" t="n">
+        <v>-0.0988374650478363</v>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>Credit portfolio performance</t>
+        </is>
+      </c>
+      <c r="D180" t="inlineStr">
+        <is>
+          <t>Sector trend</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>Management believes excluding this charge is useful as it allows investors to evaluate our performance for different periods on a more comparable basis</t>
+        </is>
+      </c>
+      <c r="B181" t="n">
+        <v>0.05656659603118896</v>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>Wealth Management, Credit portfolio performance</t>
+        </is>
+      </c>
+      <c r="D181" t="inlineStr">
+        <is>
+          <t>Financial metric - Bank, Sector trend</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>Adjustments to deferred tax balances - During the third quarter of 2023, we recorded a tax benefit of $28.2 million related to the write off of a deferred tax liability related to our original investment in Boa Vista Serviços as a result of our purchase of the remaining interest in Boa Vista Serviços in the same quarter</t>
+        </is>
+      </c>
+      <c r="B182" t="n">
+        <v>-0.331072062253952</v>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>ECB interest rate</t>
+        </is>
+      </c>
+      <c r="D182" t="inlineStr">
+        <is>
+          <t>Regulation</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>We determined the deferred tax balance should no longer be recorded as a result of our purchase of the remaining interest in Boa Vista Serviços during the third quarter of 2023</t>
+        </is>
+      </c>
+      <c r="B183" t="n">
+        <v>-0.331072062253952</v>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>ECB interest rate</t>
+        </is>
+      </c>
+      <c r="D183" t="inlineStr">
+        <is>
+          <t>Regulation</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>Management believes excluding this tax effect from certain financial results provides meaningful supplemental information regarding our financial results for the three months ended September 30, 2023, since this tax benefit is not comparable among the periods</t>
+        </is>
+      </c>
+      <c r="B184" t="n">
+        <v>-0.331072062253952</v>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>Wealth Management</t>
+        </is>
+      </c>
+      <c r="D184" t="inlineStr">
+        <is>
+          <t>Financial metric - Bank</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>This is consistent with how management reviews and assesses Equifax's historical performance and is useful when planning, forecasting and analyzing future periods.</t>
+        </is>
+      </c>
+      <c r="B185" t="n">
+        <v>-0.331072062253952</v>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>Credit portfolio performance</t>
+        </is>
+      </c>
+      <c r="D185" t="inlineStr">
+        <is>
+          <t>Sector trend</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>Adjusted EBITDA and EBITDA margin - Management defines adjusted EBITDA as consolidated net income attributable to Equifax plus net interest expense, income taxes, depreciation and amortization and also excludes certain one-time items</t>
+        </is>
+      </c>
+      <c r="B186" t="n">
+        <v>-0.1852967739105225</v>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>Gross margin, Contribution margin, Wealth Management, ECB interest rate, Credit income</t>
+        </is>
+      </c>
+      <c r="D186" t="inlineStr">
+        <is>
+          <t>Financial metric - Bank, Sector trend, Regulation, Financial metric - All</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>Management believes the use of adjusted EBITDA and adjusted EBITDA margin allows investors to evaluate our performance for different periods on a more comparable basis.</t>
+        </is>
+      </c>
+      <c r="B187" t="n">
+        <v>-0.1852967739105225</v>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>Gross margin, Contribution margin, Wealth Management, Credit portfolio performance</t>
+        </is>
+      </c>
+      <c r="D187" t="inlineStr">
+        <is>
+          <t>Financial metric - Bank, Sector trend, Financial metric - All</t>
         </is>
       </c>
     </row>
